--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_20_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2673516.760124011</v>
+        <v>2670984.481455859</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>306314.4854445865</v>
+        <v>306314.4854445872</v>
       </c>
     </row>
     <row r="9">
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -744,64 +744,64 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F3" t="n">
+      <c r="T3" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,61 +823,61 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -914,35 +914,35 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>6.05642108929943</v>
-      </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,52 +987,52 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="V6" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>6.876045741711437</v>
@@ -1057,67 +1057,67 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="W7" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="X7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.401342158599112</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,43 +1151,43 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>13.93890542723723</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>5.401342158599112</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>12.27738790031055</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>13.93890542723723</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>12.27738790031055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1297,55 +1297,55 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>12.27738790031055</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="T10" t="n">
         <v>13.93890542723723</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="U10" t="n">
         <v>13.93890542723723</v>
-      </c>
-      <c r="R10" t="n">
-        <v>12.27738790031055</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>350.812768255703</v>
       </c>
       <c r="C11" t="n">
-        <v>333.35181836323</v>
+        <v>333.3518183632299</v>
       </c>
       <c r="D11" t="n">
-        <v>322.7619682129054</v>
+        <v>322.7619682129053</v>
       </c>
       <c r="E11" t="n">
         <v>350.0092966644842</v>
       </c>
       <c r="F11" t="n">
-        <v>374.9549723339339</v>
+        <v>360.5912281650281</v>
       </c>
       <c r="G11" t="n">
         <v>378.2586554325823</v>
       </c>
       <c r="H11" t="n">
-        <v>255.0877161174483</v>
+        <v>255.0877161174482</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>60.35843600202823</v>
+        <v>60.35843600202817</v>
       </c>
       <c r="T11" t="n">
         <v>168.7488056825254</v>
@@ -1430,10 +1430,10 @@
         <v>295.8311850623573</v>
       </c>
       <c r="W11" t="n">
-        <v>302.9561511407284</v>
+        <v>317.3198953096354</v>
       </c>
       <c r="X11" t="n">
-        <v>337.8100272706915</v>
+        <v>337.8100272706914</v>
       </c>
       <c r="Y11" t="n">
         <v>354.316865248276</v>
@@ -1528,25 +1528,25 @@
         <v>147.9109067741597</v>
       </c>
       <c r="C13" t="n">
-        <v>135.3257476908503</v>
+        <v>135.3257476908502</v>
       </c>
       <c r="D13" t="n">
-        <v>116.6943996104348</v>
+        <v>116.6943996104347</v>
       </c>
       <c r="E13" t="n">
         <v>114.5128892387916</v>
       </c>
       <c r="F13" t="n">
-        <v>113.4999746151537</v>
+        <v>113.4999746151536</v>
       </c>
       <c r="G13" t="n">
-        <v>133.7719006250495</v>
+        <v>133.771900625051</v>
       </c>
       <c r="H13" t="n">
-        <v>109.8747426590453</v>
+        <v>109.8747426590452</v>
       </c>
       <c r="I13" t="n">
-        <v>54.42211409048262</v>
+        <v>54.42211409048258</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>42.04564214598673</v>
+        <v>42.04564214598669</v>
       </c>
       <c r="S13" t="n">
         <v>152.0475590906852</v>
       </c>
       <c r="T13" t="n">
-        <v>186.2057659928047</v>
+        <v>186.2057659928046</v>
       </c>
       <c r="U13" t="n">
-        <v>254.2726102036789</v>
+        <v>254.2726102036788</v>
       </c>
       <c r="V13" t="n">
         <v>220.2165699160504</v>
@@ -1591,7 +1591,7 @@
         <v>254.6019249288134</v>
       </c>
       <c r="X13" t="n">
-        <v>193.7885819812596</v>
+        <v>193.7885819812595</v>
       </c>
       <c r="Y13" t="n">
         <v>186.6635799443172</v>
@@ -1607,22 +1607,22 @@
         <v>350.812768255703</v>
       </c>
       <c r="C14" t="n">
-        <v>333.35181836323</v>
+        <v>333.3518183632299</v>
       </c>
       <c r="D14" t="n">
-        <v>322.7619682129054</v>
+        <v>322.7619682129053</v>
       </c>
       <c r="E14" t="n">
-        <v>350.0092966644842</v>
+        <v>335.6455524955775</v>
       </c>
       <c r="F14" t="n">
-        <v>374.9549723339339</v>
+        <v>374.9549723339338</v>
       </c>
       <c r="G14" t="n">
         <v>378.2586554325823</v>
       </c>
       <c r="H14" t="n">
-        <v>255.0877161174483</v>
+        <v>255.0877161174482</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>45.99469183312132</v>
+        <v>60.3584360020282</v>
       </c>
       <c r="T14" t="n">
         <v>168.7488056825254</v>
@@ -1667,10 +1667,10 @@
         <v>295.8311850623573</v>
       </c>
       <c r="W14" t="n">
-        <v>317.3198953096355</v>
+        <v>317.3198953096354</v>
       </c>
       <c r="X14" t="n">
-        <v>337.8100272706915</v>
+        <v>337.8100272706914</v>
       </c>
       <c r="Y14" t="n">
         <v>354.316865248276</v>
@@ -1765,25 +1765,25 @@
         <v>147.9109067741597</v>
       </c>
       <c r="C16" t="n">
-        <v>135.3257476908503</v>
+        <v>135.3257476908502</v>
       </c>
       <c r="D16" t="n">
-        <v>116.6943996104348</v>
+        <v>116.6943996104347</v>
       </c>
       <c r="E16" t="n">
         <v>114.5128892387916</v>
       </c>
       <c r="F16" t="n">
-        <v>113.4999746151537</v>
+        <v>113.4999746151543</v>
       </c>
       <c r="G16" t="n">
-        <v>133.7719006250495</v>
+        <v>133.7719006250494</v>
       </c>
       <c r="H16" t="n">
-        <v>109.8747426590453</v>
+        <v>109.8747426590452</v>
       </c>
       <c r="I16" t="n">
-        <v>54.42211409048267</v>
+        <v>54.42211409048259</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.04564214598676</v>
+        <v>42.0456421459867</v>
       </c>
       <c r="S16" t="n">
-        <v>152.0475590906853</v>
+        <v>152.0475590906852</v>
       </c>
       <c r="T16" t="n">
-        <v>186.2057659928047</v>
+        <v>186.2057659928046</v>
       </c>
       <c r="U16" t="n">
-        <v>254.2726102036789</v>
+        <v>254.2726102036788</v>
       </c>
       <c r="V16" t="n">
         <v>220.2165699160504</v>
       </c>
       <c r="W16" t="n">
-        <v>254.6019249288125</v>
+        <v>254.6019249288134</v>
       </c>
       <c r="X16" t="n">
-        <v>193.7885819812596</v>
+        <v>193.7885819812595</v>
       </c>
       <c r="Y16" t="n">
         <v>186.6635799443172</v>
@@ -1844,22 +1844,22 @@
         <v>350.812768255703</v>
       </c>
       <c r="C17" t="n">
-        <v>333.35181836323</v>
+        <v>318.9880741943214</v>
       </c>
       <c r="D17" t="n">
-        <v>322.7619682129054</v>
+        <v>322.7619682129053</v>
       </c>
       <c r="E17" t="n">
         <v>350.0092966644842</v>
       </c>
       <c r="F17" t="n">
-        <v>374.9549723339339</v>
+        <v>374.9549723339338</v>
       </c>
       <c r="G17" t="n">
         <v>378.2586554325823</v>
       </c>
       <c r="H17" t="n">
-        <v>255.0877161174483</v>
+        <v>255.0877161174482</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.35843600202824</v>
+        <v>60.3584360020282</v>
       </c>
       <c r="T17" t="n">
         <v>168.7488056825254</v>
@@ -1904,13 +1904,13 @@
         <v>295.8311850623573</v>
       </c>
       <c r="W17" t="n">
-        <v>317.3198953096355</v>
+        <v>317.3198953096354</v>
       </c>
       <c r="X17" t="n">
-        <v>337.8100272706915</v>
+        <v>337.8100272706914</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.9531210793697</v>
+        <v>354.316865248276</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>85.76265938662456</v>
       </c>
       <c r="I18" t="n">
-        <v>5.148464890329507</v>
+        <v>5.148464890329535</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>147.9109067741597</v>
       </c>
       <c r="C19" t="n">
-        <v>135.3257476908503</v>
+        <v>135.3257476908502</v>
       </c>
       <c r="D19" t="n">
-        <v>116.6943996104351</v>
+        <v>116.6943996104347</v>
       </c>
       <c r="E19" t="n">
         <v>114.5128892387916</v>
       </c>
       <c r="F19" t="n">
-        <v>113.4999746151537</v>
+        <v>113.4999746151536</v>
       </c>
       <c r="G19" t="n">
-        <v>133.7719006250495</v>
+        <v>133.7719006250494</v>
       </c>
       <c r="H19" t="n">
-        <v>109.8747426590453</v>
+        <v>109.8747426590452</v>
       </c>
       <c r="I19" t="n">
-        <v>54.42211409048264</v>
+        <v>54.4221140904826</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04564214598672</v>
+        <v>42.04564214598671</v>
       </c>
       <c r="S19" t="n">
         <v>152.0475590906852</v>
       </c>
       <c r="T19" t="n">
-        <v>186.2057659928047</v>
+        <v>186.2057659928046</v>
       </c>
       <c r="U19" t="n">
-        <v>254.2726102036789</v>
+        <v>254.2726102036788</v>
       </c>
       <c r="V19" t="n">
         <v>220.2165699160504</v>
@@ -2065,7 +2065,7 @@
         <v>254.6019249288134</v>
       </c>
       <c r="X19" t="n">
-        <v>193.7885819812596</v>
+        <v>193.7885819812595</v>
       </c>
       <c r="Y19" t="n">
         <v>186.6635799443172</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>350.812768255703</v>
+        <v>336.4490240867964</v>
       </c>
       <c r="C20" t="n">
         <v>333.35181836323</v>
       </c>
       <c r="D20" t="n">
-        <v>322.7619682129054</v>
+        <v>322.7619682129053</v>
       </c>
       <c r="E20" t="n">
         <v>350.0092966644842</v>
       </c>
       <c r="F20" t="n">
-        <v>374.9549723339339</v>
+        <v>374.9549723339338</v>
       </c>
       <c r="G20" t="n">
         <v>378.2586554325823</v>
       </c>
       <c r="H20" t="n">
-        <v>255.0877161174483</v>
+        <v>255.0877161174482</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>45.99469183312222</v>
+        <v>60.35843600202823</v>
       </c>
       <c r="T20" t="n">
         <v>168.7488056825254</v>
@@ -2141,10 +2141,10 @@
         <v>295.8311850623573</v>
       </c>
       <c r="W20" t="n">
-        <v>317.3198953096355</v>
+        <v>317.3198953096354</v>
       </c>
       <c r="X20" t="n">
-        <v>337.8100272706915</v>
+        <v>337.8100272706914</v>
       </c>
       <c r="Y20" t="n">
         <v>354.316865248276</v>
@@ -2178,7 +2178,7 @@
         <v>85.76265938662456</v>
       </c>
       <c r="I21" t="n">
-        <v>5.148464890329521</v>
+        <v>5.148464890329535</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>147.9109067741597</v>
       </c>
       <c r="C22" t="n">
-        <v>135.3257476908503</v>
+        <v>135.3257476908502</v>
       </c>
       <c r="D22" t="n">
         <v>116.6943996104348</v>
@@ -2251,13 +2251,13 @@
         <v>113.4999746151537</v>
       </c>
       <c r="G22" t="n">
-        <v>133.7719006250495</v>
+        <v>133.7719006250494</v>
       </c>
       <c r="H22" t="n">
-        <v>109.8747426590453</v>
+        <v>109.8747426590456</v>
       </c>
       <c r="I22" t="n">
-        <v>54.42211409048253</v>
+        <v>54.42211409048262</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04564214598675</v>
+        <v>42.04564214598673</v>
       </c>
       <c r="S22" t="n">
         <v>152.0475590906852</v>
@@ -2321,19 +2321,19 @@
         <v>333.35181836323</v>
       </c>
       <c r="D23" t="n">
-        <v>322.7619682129054</v>
+        <v>308.3982240439986</v>
       </c>
       <c r="E23" t="n">
         <v>350.0092966644842</v>
       </c>
       <c r="F23" t="n">
-        <v>374.9549723339339</v>
+        <v>374.9549723339338</v>
       </c>
       <c r="G23" t="n">
-        <v>363.8949112636764</v>
+        <v>378.2586554325823</v>
       </c>
       <c r="H23" t="n">
-        <v>255.0877161174483</v>
+        <v>255.0877161174482</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.35843600202824</v>
+        <v>60.3584360020282</v>
       </c>
       <c r="T23" t="n">
         <v>168.7488056825254</v>
@@ -2378,10 +2378,10 @@
         <v>295.8311850623573</v>
       </c>
       <c r="W23" t="n">
-        <v>317.3198953096355</v>
+        <v>317.3198953096354</v>
       </c>
       <c r="X23" t="n">
-        <v>337.8100272706915</v>
+        <v>337.8100272706914</v>
       </c>
       <c r="Y23" t="n">
         <v>354.316865248276</v>
@@ -2415,7 +2415,7 @@
         <v>85.76265938662456</v>
       </c>
       <c r="I24" t="n">
-        <v>5.148464890329507</v>
+        <v>5.148464890329521</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>147.9109067741597</v>
       </c>
       <c r="C25" t="n">
-        <v>135.3257476908503</v>
+        <v>135.3257476908502</v>
       </c>
       <c r="D25" t="n">
         <v>116.6943996104348</v>
@@ -2488,13 +2488,13 @@
         <v>113.4999746151537</v>
       </c>
       <c r="G25" t="n">
-        <v>133.7719006250495</v>
+        <v>133.7719006250494</v>
       </c>
       <c r="H25" t="n">
         <v>109.8747426590453</v>
       </c>
       <c r="I25" t="n">
-        <v>54.42211409048264</v>
+        <v>54.42211409048261</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04564214598673</v>
+        <v>42.04564214598672</v>
       </c>
       <c r="S25" t="n">
         <v>152.0475590906852</v>
@@ -2567,7 +2567,7 @@
         <v>387.9260699700694</v>
       </c>
       <c r="G26" t="n">
-        <v>391.2297530687179</v>
+        <v>195.2706419939149</v>
       </c>
       <c r="H26" t="n">
         <v>268.0588137535838</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>59.09032588202147</v>
+        <v>73.32953363816375</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>181.719903318661</v>
       </c>
       <c r="U26" t="n">
         <v>231.9858364422125</v>
@@ -2719,16 +2719,16 @@
         <v>129.6654972465703</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>127.4839868749272</v>
       </c>
       <c r="F28" t="n">
-        <v>12.10692632925519</v>
+        <v>126.4710722512892</v>
       </c>
       <c r="G28" t="n">
-        <v>146.742998261185</v>
+        <v>27.74070575940462</v>
       </c>
       <c r="H28" t="n">
-        <v>122.8458402951808</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>391.2297530687179</v>
       </c>
       <c r="H29" t="n">
-        <v>268.0588137535838</v>
+        <v>72.09970267877996</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.32953363816372</v>
+        <v>73.32953363816375</v>
       </c>
       <c r="T29" t="n">
         <v>181.719903318661</v>
       </c>
       <c r="U29" t="n">
-        <v>231.9858364422124</v>
+        <v>231.9858364422125</v>
       </c>
       <c r="V29" t="n">
-        <v>112.8431716236892</v>
+        <v>308.8022826984929</v>
       </c>
       <c r="W29" t="n">
         <v>330.290992945771</v>
@@ -2956,10 +2956,10 @@
         <v>129.6654972465703</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>12.10692632925519</v>
       </c>
       <c r="F31" t="n">
-        <v>12.10692632925597</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>146.742998261185</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>55.01673978212223</v>
+        <v>55.01673978212226</v>
       </c>
       <c r="S31" t="n">
         <v>165.0186567268208</v>
@@ -3016,7 +3016,7 @@
         <v>206.7596796173951</v>
       </c>
       <c r="Y31" t="n">
-        <v>199.6346775804527</v>
+        <v>199.6346775804528</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>350.0092966644842</v>
       </c>
       <c r="F32" t="n">
-        <v>374.9549723339339</v>
+        <v>360.591228165028</v>
       </c>
       <c r="G32" t="n">
         <v>378.2586554325823</v>
@@ -3080,7 +3080,7 @@
         <v>60.35843600202821</v>
       </c>
       <c r="T32" t="n">
-        <v>154.3850615136202</v>
+        <v>168.7488056825254</v>
       </c>
       <c r="U32" t="n">
         <v>219.0147388060769</v>
@@ -3196,7 +3196,7 @@
         <v>114.5128892387916</v>
       </c>
       <c r="F34" t="n">
-        <v>113.4999746151537</v>
+        <v>113.4999746151541</v>
       </c>
       <c r="G34" t="n">
         <v>133.7719006250495</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.0456421459867</v>
+        <v>42.04564214598672</v>
       </c>
       <c r="S34" t="n">
         <v>152.0475590906852</v>
@@ -3269,7 +3269,7 @@
         <v>333.35181836323</v>
       </c>
       <c r="D35" t="n">
-        <v>322.7619682129054</v>
+        <v>308.3982240440002</v>
       </c>
       <c r="E35" t="n">
         <v>350.0092966644842</v>
@@ -3320,7 +3320,7 @@
         <v>168.7488056825254</v>
       </c>
       <c r="U35" t="n">
-        <v>204.6509946371716</v>
+        <v>219.0147388060769</v>
       </c>
       <c r="V35" t="n">
         <v>295.8311850623573</v>
@@ -3433,7 +3433,7 @@
         <v>114.5128892387916</v>
       </c>
       <c r="F37" t="n">
-        <v>113.4999746151541</v>
+        <v>113.4999746151537</v>
       </c>
       <c r="G37" t="n">
         <v>133.7719006250495</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04564214598672</v>
+        <v>42.0456421459867</v>
       </c>
       <c r="S37" t="n">
         <v>152.0475590906852</v>
@@ -3512,7 +3512,7 @@
         <v>350.0092966644842</v>
       </c>
       <c r="F38" t="n">
-        <v>374.9549723339339</v>
+        <v>360.5912281650289</v>
       </c>
       <c r="G38" t="n">
         <v>378.2586554325823</v>
@@ -3554,7 +3554,7 @@
         <v>60.35843600202821</v>
       </c>
       <c r="T38" t="n">
-        <v>154.3850615136202</v>
+        <v>168.7488056825254</v>
       </c>
       <c r="U38" t="n">
         <v>219.0147388060769</v>
@@ -3670,7 +3670,7 @@
         <v>114.5128892387916</v>
       </c>
       <c r="F40" t="n">
-        <v>113.4999746151541</v>
+        <v>113.4999746151537</v>
       </c>
       <c r="G40" t="n">
         <v>133.7719006250495</v>
@@ -3752,7 +3752,7 @@
         <v>393.9049481055759</v>
       </c>
       <c r="G41" t="n">
-        <v>397.2086312042243</v>
+        <v>117.5452262323314</v>
       </c>
       <c r="H41" t="n">
         <v>274.0376918890902</v>
@@ -3791,10 +3791,10 @@
         <v>79.30841177367023</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>187.6987814541674</v>
       </c>
       <c r="U41" t="n">
-        <v>146.0000910599932</v>
+        <v>237.964714577719</v>
       </c>
       <c r="V41" t="n">
         <v>314.7811608339994</v>
@@ -3901,19 +3901,19 @@
         <v>154.2757234624923</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>135.6443753820768</v>
       </c>
       <c r="E43" t="n">
-        <v>19.52146630875986</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>132.4499503867957</v>
       </c>
       <c r="G43" t="n">
-        <v>152.7218763966915</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>128.8247184306873</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>273.5519007004555</v>
       </c>
       <c r="X43" t="n">
-        <v>212.7385577529016</v>
+        <v>120.5128066455887</v>
       </c>
       <c r="Y43" t="n">
         <v>205.6135557159593</v>
@@ -3989,7 +3989,7 @@
         <v>393.9049481055759</v>
       </c>
       <c r="G44" t="n">
-        <v>117.5452262323314</v>
+        <v>117.5452262323297</v>
       </c>
       <c r="H44" t="n">
         <v>274.0376918890902</v>
@@ -4135,10 +4135,10 @@
         <v>166.8608825458018</v>
       </c>
       <c r="C46" t="n">
-        <v>57.41182577543317</v>
+        <v>154.2757234624923</v>
       </c>
       <c r="D46" t="n">
-        <v>135.6443753820768</v>
+        <v>38.78047769501769</v>
       </c>
       <c r="E46" t="n">
         <v>133.4628650104336</v>
@@ -4328,40 +4328,40 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J2" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="K2" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="K2" t="n">
-        <v>11.73106307749937</v>
-      </c>
       <c r="L2" t="n">
-        <v>11.73106307749937</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M2" t="n">
-        <v>13.8896123982571</v>
+        <v>16.32320354868328</v>
       </c>
       <c r="N2" t="n">
-        <v>20.69689768255142</v>
+        <v>23.13048883297761</v>
       </c>
       <c r="O2" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P2" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q2" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S2" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T2" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U2" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V2" t="n">
         <v>14.44108515774386</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E3" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I3" t="n">
         <v>0.5500836593369149</v>
@@ -4413,16 +4413,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L3" t="n">
-        <v>7.082327113962777</v>
+        <v>5.770716025317804</v>
       </c>
       <c r="M3" t="n">
-        <v>13.8896123982571</v>
+        <v>12.57800130961213</v>
       </c>
       <c r="N3" t="n">
-        <v>20.69689768255142</v>
+        <v>19.38528659390645</v>
       </c>
       <c r="O3" t="n">
-        <v>27.50418296684575</v>
+        <v>26.19257187820077</v>
       </c>
       <c r="P3" t="n">
         <v>27.50418296684575</v>
@@ -4431,28 +4431,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S3" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U3" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W3" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I4" t="n">
         <v>0.5500836593369149</v>
@@ -4492,13 +4492,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L4" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O4" t="n">
         <v>20.69689768255142</v>
@@ -4507,7 +4507,7 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R4" t="n">
         <v>20.55868221764227</v>
@@ -4519,19 +4519,19 @@
         <v>20.55868221764227</v>
       </c>
       <c r="U4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V4" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W4" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X4" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F5" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H5" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>11.73106307749937</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
-        <v>11.73106307749937</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M5" t="n">
+        <v>7.082327113962777</v>
+      </c>
+      <c r="N5" t="n">
         <v>13.8896123982571</v>
-      </c>
-      <c r="N5" t="n">
-        <v>20.69689768255142</v>
       </c>
       <c r="O5" t="n">
         <v>20.69689768255142</v>
@@ -4589,28 +4589,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T5" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="X5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C6" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D6" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E6" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
@@ -4650,16 +4650,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>7.357368943631237</v>
+        <v>5.770716025317804</v>
       </c>
       <c r="M6" t="n">
-        <v>14.16465422792556</v>
+        <v>12.57800130961213</v>
       </c>
       <c r="N6" t="n">
-        <v>20.97193951221988</v>
+        <v>19.38528659390645</v>
       </c>
       <c r="O6" t="n">
-        <v>27.50418296684575</v>
+        <v>26.19257187820077</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4668,28 +4668,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U6" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V6" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="W6" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X6" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="7">
@@ -4699,52 +4699,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I7" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J7" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K7" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L7" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>14.16465422792556</v>
       </c>
-      <c r="M7" t="n">
-        <v>20.69689768255142</v>
-      </c>
       <c r="N7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R7" t="n">
         <v>20.55868221764227</v>
@@ -4756,19 +4756,19 @@
         <v>20.55868221764227</v>
       </c>
       <c r="U7" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V7" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W7" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="8">
@@ -4778,55 +4778,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.220018086892</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="C8" t="n">
-        <v>36.220018086892</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="D8" t="n">
-        <v>36.220018086892</v>
+        <v>27.59621680543936</v>
       </c>
       <c r="E8" t="n">
-        <v>36.220018086892</v>
+        <v>22.14031563513723</v>
       </c>
       <c r="F8" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="G8" t="n">
-        <v>15.19481488593376</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="H8" t="n">
-        <v>15.19481488593376</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="I8" t="n">
         <v>1.115112434178978</v>
       </c>
       <c r="J8" t="n">
-        <v>1.115112434178978</v>
+        <v>5.31763219200683</v>
       </c>
       <c r="K8" t="n">
-        <v>1.115112434178978</v>
+        <v>5.31763219200683</v>
       </c>
       <c r="L8" t="n">
-        <v>14.91462880714383</v>
+        <v>19.11714856497169</v>
       </c>
       <c r="M8" t="n">
-        <v>28.71414518010869</v>
+        <v>28.15658896301922</v>
       </c>
       <c r="N8" t="n">
-        <v>42.51366155307353</v>
+        <v>41.95610533598406</v>
       </c>
       <c r="O8" t="n">
-        <v>55.75562170894892</v>
+        <v>41.95610533598406</v>
       </c>
       <c r="P8" t="n">
-        <v>55.75562170894892</v>
+        <v>41.95610533598406</v>
       </c>
       <c r="Q8" t="n">
         <v>55.75562170894892</v>
       </c>
       <c r="R8" t="n">
-        <v>41.67591925719414</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="S8" t="n">
         <v>41.67591925719414</v>
@@ -4835,19 +4835,19 @@
         <v>41.67591925719414</v>
       </c>
       <c r="U8" t="n">
-        <v>36.220018086892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="V8" t="n">
-        <v>36.220018086892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="W8" t="n">
-        <v>36.220018086892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="X8" t="n">
-        <v>36.220018086892</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.220018086892</v>
+        <v>41.67591925719414</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.59621680543936</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="C9" t="n">
-        <v>27.59621680543936</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="D9" t="n">
-        <v>13.51651435368458</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="E9" t="n">
         <v>1.115112434178978</v>
@@ -4905,13 +4905,13 @@
         <v>55.75562170894892</v>
       </c>
       <c r="R9" t="n">
+        <v>55.75562170894892</v>
+      </c>
+      <c r="S9" t="n">
         <v>41.67591925719414</v>
       </c>
-      <c r="S9" t="n">
-        <v>27.59621680543936</v>
-      </c>
       <c r="T9" t="n">
-        <v>27.59621680543936</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="U9" t="n">
         <v>27.59621680543936</v>
@@ -4920,13 +4920,13 @@
         <v>27.59621680543936</v>
       </c>
       <c r="W9" t="n">
-        <v>27.59621680543936</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="X9" t="n">
-        <v>27.59621680543936</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.59621680543936</v>
+        <v>15.19481488593376</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.27451733768853</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="C10" t="n">
-        <v>29.27451733768853</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="D10" t="n">
-        <v>29.27451733768853</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="E10" t="n">
-        <v>15.19481488593376</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="F10" t="n">
-        <v>15.19481488593376</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="G10" t="n">
-        <v>15.19481488593376</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="H10" t="n">
-        <v>15.19481488593376</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="I10" t="n">
-        <v>15.19481488593376</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="J10" t="n">
         <v>1.115112434178978</v>
       </c>
       <c r="K10" t="n">
-        <v>1.115112434178978</v>
+        <v>14.91462880714383</v>
       </c>
       <c r="L10" t="n">
-        <v>1.115112434178978</v>
+        <v>28.71414518010869</v>
       </c>
       <c r="M10" t="n">
-        <v>14.91462880714383</v>
+        <v>28.71414518010869</v>
       </c>
       <c r="N10" t="n">
-        <v>28.15658896301921</v>
+        <v>28.71414518010869</v>
       </c>
       <c r="O10" t="n">
-        <v>41.95610533598406</v>
+        <v>42.51366155307355</v>
       </c>
       <c r="P10" t="n">
         <v>55.75562170894892</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.67591925719414</v>
+        <v>43.35421978944331</v>
       </c>
       <c r="R10" t="n">
-        <v>29.27451733768853</v>
+        <v>43.35421978944331</v>
       </c>
       <c r="S10" t="n">
         <v>29.27451733768853</v>
       </c>
       <c r="T10" t="n">
-        <v>29.27451733768853</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="U10" t="n">
-        <v>29.27451733768853</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="V10" t="n">
-        <v>29.27451733768853</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="W10" t="n">
-        <v>29.27451733768853</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="X10" t="n">
-        <v>29.27451733768853</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.27451733768853</v>
+        <v>1.115112434178978</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2119.378897829264</v>
+        <v>2104.870065335419</v>
       </c>
       <c r="C11" t="n">
-        <v>1782.659889381557</v>
+        <v>1768.151056887712</v>
       </c>
       <c r="D11" t="n">
-        <v>1456.637699267511</v>
+        <v>1442.128866773667</v>
       </c>
       <c r="E11" t="n">
-        <v>1103.092955161972</v>
+        <v>1088.584122668127</v>
       </c>
       <c r="F11" t="n">
-        <v>724.3505588650685</v>
+        <v>724.3505588650684</v>
       </c>
       <c r="G11" t="n">
         <v>342.2711089331671</v>
       </c>
       <c r="H11" t="n">
-        <v>84.6067492185729</v>
+        <v>84.60674921857292</v>
       </c>
       <c r="I11" t="n">
-        <v>84.6067492185729</v>
+        <v>84.60674921857292</v>
       </c>
       <c r="J11" t="n">
-        <v>335.8321716727468</v>
+        <v>335.8321716727469</v>
       </c>
       <c r="K11" t="n">
-        <v>763.0924747050107</v>
+        <v>763.0924747050108</v>
       </c>
       <c r="L11" t="n">
-        <v>1330.048423414862</v>
+        <v>1330.048423414863</v>
       </c>
       <c r="M11" t="n">
-        <v>1992.565594514834</v>
+        <v>1992.565594514835</v>
       </c>
       <c r="N11" t="n">
-        <v>2670.416794462414</v>
+        <v>2670.416794462415</v>
       </c>
       <c r="O11" t="n">
         <v>3297.157199728452</v>
       </c>
       <c r="P11" t="n">
-        <v>3797.564634612314</v>
+        <v>3797.564634612315</v>
       </c>
       <c r="Q11" t="n">
-        <v>4125.177031634457</v>
+        <v>4125.177031634458</v>
       </c>
       <c r="R11" t="n">
-        <v>4230.337460928645</v>
+        <v>4230.337460928646</v>
       </c>
       <c r="S11" t="n">
-        <v>4169.369343754879</v>
+        <v>4169.36934375488</v>
       </c>
       <c r="T11" t="n">
-        <v>3998.916004681621</v>
+        <v>3998.916004681622</v>
       </c>
       <c r="U11" t="n">
-        <v>3777.688995786594</v>
+        <v>3777.688995786595</v>
       </c>
       <c r="V11" t="n">
-        <v>3478.869616935728</v>
+        <v>3478.869616935729</v>
       </c>
       <c r="W11" t="n">
-        <v>3172.853302652164</v>
+        <v>3158.344470158319</v>
       </c>
       <c r="X11" t="n">
-        <v>2831.631052883788</v>
+        <v>2817.122220389944</v>
       </c>
       <c r="Y11" t="n">
-        <v>2473.735229400681</v>
+        <v>2459.226396906837</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.4361676801427</v>
       </c>
       <c r="H12" t="n">
-        <v>89.80721880476433</v>
+        <v>89.80721880476435</v>
       </c>
       <c r="I12" t="n">
-        <v>84.6067492185729</v>
+        <v>84.60674921857292</v>
       </c>
       <c r="J12" t="n">
-        <v>215.4170428088452</v>
+        <v>84.60674921857292</v>
       </c>
       <c r="K12" t="n">
-        <v>517.1474944365623</v>
+        <v>386.33720084629</v>
       </c>
       <c r="L12" t="n">
-        <v>969.1838636556581</v>
+        <v>838.3735700653858</v>
       </c>
       <c r="M12" t="n">
-        <v>1516.045853528504</v>
+        <v>1385.235559938232</v>
       </c>
       <c r="N12" t="n">
-        <v>1516.045853528504</v>
+        <v>1433.733080758274</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.519744168599</v>
+        <v>1938.20697139837</v>
       </c>
       <c r="P12" t="n">
-        <v>2406.071450367825</v>
+        <v>2323.758677597595</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.831644425932</v>
+        <v>2531.570586360502</v>
       </c>
       <c r="R12" t="n">
         <v>2555.831644425932</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>870.5681315719137</v>
+        <v>870.5681315719153</v>
       </c>
       <c r="C13" t="n">
-        <v>733.8754571367114</v>
+        <v>733.8754571367131</v>
       </c>
       <c r="D13" t="n">
-        <v>616.0023262170803</v>
+        <v>616.002326217082</v>
       </c>
       <c r="E13" t="n">
-        <v>500.3327411273917</v>
+        <v>500.3327411273935</v>
       </c>
       <c r="F13" t="n">
-        <v>385.686302122186</v>
+        <v>385.6863021221878</v>
       </c>
       <c r="G13" t="n">
-        <v>250.5631701776915</v>
+        <v>250.5631701776919</v>
       </c>
       <c r="H13" t="n">
         <v>139.5785816332018</v>
       </c>
       <c r="I13" t="n">
-        <v>84.6067492185729</v>
+        <v>84.60674921857292</v>
       </c>
       <c r="J13" t="n">
-        <v>184.6273103337086</v>
+        <v>184.6273103337089</v>
       </c>
       <c r="K13" t="n">
-        <v>458.4989486539464</v>
+        <v>458.498948653947</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6491481937921</v>
+        <v>855.6491481937928</v>
       </c>
       <c r="M13" t="n">
-        <v>1283.059601528526</v>
+        <v>1283.059601528527</v>
       </c>
       <c r="N13" t="n">
-        <v>1706.493227674894</v>
+        <v>1706.493227674895</v>
       </c>
       <c r="O13" t="n">
-        <v>2083.998848209793</v>
+        <v>2083.998848209795</v>
       </c>
       <c r="P13" t="n">
-        <v>2388.060450225579</v>
+        <v>2388.060450225581</v>
       </c>
       <c r="Q13" t="n">
-        <v>2524.864233569647</v>
+        <v>2524.864233569648</v>
       </c>
       <c r="R13" t="n">
-        <v>2482.39388796764</v>
+        <v>2482.393887967642</v>
       </c>
       <c r="S13" t="n">
-        <v>2328.810494946746</v>
+        <v>2328.810494946747</v>
       </c>
       <c r="T13" t="n">
-        <v>2140.723862630782</v>
+        <v>2140.723862630783</v>
       </c>
       <c r="U13" t="n">
-        <v>1883.882842223025</v>
+        <v>1883.882842223027</v>
       </c>
       <c r="V13" t="n">
-        <v>1661.441862509843</v>
+        <v>1661.441862509844</v>
       </c>
       <c r="W13" t="n">
-        <v>1404.268200965587</v>
+        <v>1404.268200965588</v>
       </c>
       <c r="X13" t="n">
-        <v>1208.522158560274</v>
+        <v>1208.522158560276</v>
       </c>
       <c r="Y13" t="n">
-        <v>1019.973087909449</v>
+        <v>1019.97308790945</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2119.378897829264</v>
+        <v>2104.870065335419</v>
       </c>
       <c r="C14" t="n">
-        <v>1782.659889381557</v>
+        <v>1768.151056887712</v>
       </c>
       <c r="D14" t="n">
-        <v>1456.637699267511</v>
+        <v>1442.128866773666</v>
       </c>
       <c r="E14" t="n">
-        <v>1103.092955161972</v>
+        <v>1103.092955161971</v>
       </c>
       <c r="F14" t="n">
-        <v>724.3505588650685</v>
+        <v>724.3505588650684</v>
       </c>
       <c r="G14" t="n">
-        <v>342.2711089331672</v>
+        <v>342.2711089331671</v>
       </c>
       <c r="H14" t="n">
         <v>84.6067492185729</v>
@@ -5276,19 +5276,19 @@
         <v>84.6067492185729</v>
       </c>
       <c r="J14" t="n">
-        <v>335.8321716727469</v>
+        <v>335.8321716727478</v>
       </c>
       <c r="K14" t="n">
-        <v>763.0924747050108</v>
+        <v>763.0924747050117</v>
       </c>
       <c r="L14" t="n">
-        <v>1330.048423414863</v>
+        <v>1330.048423414864</v>
       </c>
       <c r="M14" t="n">
-        <v>1992.565594514834</v>
+        <v>1992.565594514836</v>
       </c>
       <c r="N14" t="n">
-        <v>2670.416794462414</v>
+        <v>2670.416794462416</v>
       </c>
       <c r="O14" t="n">
         <v>3297.157199728452</v>
@@ -5303,25 +5303,25 @@
         <v>4230.337460928645</v>
       </c>
       <c r="S14" t="n">
-        <v>4183.878176248724</v>
+        <v>4169.369343754879</v>
       </c>
       <c r="T14" t="n">
-        <v>4013.424837175467</v>
+        <v>3998.916004681621</v>
       </c>
       <c r="U14" t="n">
-        <v>3792.197828280439</v>
+        <v>3777.688995786594</v>
       </c>
       <c r="V14" t="n">
-        <v>3493.378449429573</v>
+        <v>3478.869616935728</v>
       </c>
       <c r="W14" t="n">
-        <v>3172.853302652164</v>
+        <v>3158.344470158318</v>
       </c>
       <c r="X14" t="n">
-        <v>2831.631052883788</v>
+        <v>2817.122220389943</v>
       </c>
       <c r="Y14" t="n">
-        <v>2473.735229400681</v>
+        <v>2459.226396906836</v>
       </c>
     </row>
     <row r="15">
@@ -5364,19 +5364,19 @@
         <v>969.1838636556579</v>
       </c>
       <c r="M15" t="n">
-        <v>1516.045853528503</v>
+        <v>1065.800545099291</v>
       </c>
       <c r="N15" t="n">
-        <v>2091.790297950394</v>
+        <v>1641.544989521181</v>
       </c>
       <c r="O15" t="n">
-        <v>2555.831644425932</v>
+        <v>2146.018880161277</v>
       </c>
       <c r="P15" t="n">
-        <v>2555.831644425932</v>
+        <v>2531.570586360502</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.831644425932</v>
+        <v>2531.570586360502</v>
       </c>
       <c r="R15" t="n">
         <v>2555.831644425932</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>870.5681315719143</v>
+        <v>870.5681315719144</v>
       </c>
       <c r="C16" t="n">
-        <v>733.8754571367119</v>
+        <v>733.8754571367122</v>
       </c>
       <c r="D16" t="n">
-        <v>616.0023262170808</v>
+        <v>616.0023262170811</v>
       </c>
       <c r="E16" t="n">
-        <v>500.3327411273923</v>
+        <v>500.3327411273926</v>
       </c>
       <c r="F16" t="n">
-        <v>385.6863021221865</v>
+        <v>385.6863021221863</v>
       </c>
       <c r="G16" t="n">
-        <v>250.5631701776921</v>
+        <v>250.5631701776919</v>
       </c>
       <c r="H16" t="n">
         <v>139.5785816332018</v>
@@ -5434,43 +5434,43 @@
         <v>84.6067492185729</v>
       </c>
       <c r="J16" t="n">
-        <v>184.6273103337087</v>
+        <v>184.6273103337088</v>
       </c>
       <c r="K16" t="n">
-        <v>458.4989486539468</v>
+        <v>458.498948653947</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6491481937924</v>
+        <v>855.6491481937926</v>
       </c>
       <c r="M16" t="n">
         <v>1283.059601528527</v>
       </c>
       <c r="N16" t="n">
-        <v>1706.493227674894</v>
+        <v>1706.493227674895</v>
       </c>
       <c r="O16" t="n">
-        <v>2083.998848209793</v>
+        <v>2083.998848209794</v>
       </c>
       <c r="P16" t="n">
-        <v>2388.060450225579</v>
+        <v>2388.06045022558</v>
       </c>
       <c r="Q16" t="n">
-        <v>2524.864233569647</v>
+        <v>2524.864233569648</v>
       </c>
       <c r="R16" t="n">
-        <v>2482.39388796764</v>
+        <v>2482.393887967641</v>
       </c>
       <c r="S16" t="n">
-        <v>2328.810494946746</v>
+        <v>2328.810494946747</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.723862630781</v>
+        <v>2140.723862630782</v>
       </c>
       <c r="U16" t="n">
-        <v>1883.882842223025</v>
+        <v>1883.882842223026</v>
       </c>
       <c r="V16" t="n">
-        <v>1661.441862509843</v>
+        <v>1661.441862509844</v>
       </c>
       <c r="W16" t="n">
         <v>1404.268200965588</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2119.378897829264</v>
+        <v>2104.870065335417</v>
       </c>
       <c r="C17" t="n">
         <v>1782.659889381557</v>
@@ -5498,67 +5498,67 @@
         <v>1456.637699267511</v>
       </c>
       <c r="E17" t="n">
-        <v>1103.092955161972</v>
+        <v>1103.092955161971</v>
       </c>
       <c r="F17" t="n">
-        <v>724.3505588650685</v>
+        <v>724.3505588650684</v>
       </c>
       <c r="G17" t="n">
         <v>342.2711089331671</v>
       </c>
       <c r="H17" t="n">
-        <v>84.60674921857292</v>
+        <v>84.60674921857286</v>
       </c>
       <c r="I17" t="n">
-        <v>84.60674921857292</v>
+        <v>84.60674921857286</v>
       </c>
       <c r="J17" t="n">
-        <v>335.832171672747</v>
+        <v>335.8321716727469</v>
       </c>
       <c r="K17" t="n">
-        <v>763.092474705011</v>
+        <v>763.0924747050107</v>
       </c>
       <c r="L17" t="n">
-        <v>1330.048423414863</v>
+        <v>1330.048423414862</v>
       </c>
       <c r="M17" t="n">
-        <v>1992.565594514835</v>
+        <v>1992.565594514833</v>
       </c>
       <c r="N17" t="n">
-        <v>2670.416794462415</v>
+        <v>2670.416794462413</v>
       </c>
       <c r="O17" t="n">
-        <v>3297.157199728453</v>
+        <v>3297.15719972845</v>
       </c>
       <c r="P17" t="n">
-        <v>3797.564634612315</v>
+        <v>3797.564634612313</v>
       </c>
       <c r="Q17" t="n">
-        <v>4125.177031634458</v>
+        <v>4125.177031634455</v>
       </c>
       <c r="R17" t="n">
-        <v>4230.337460928646</v>
+        <v>4230.337460928643</v>
       </c>
       <c r="S17" t="n">
-        <v>4169.36934375488</v>
+        <v>4169.369343754877</v>
       </c>
       <c r="T17" t="n">
-        <v>3998.916004681622</v>
+        <v>3998.916004681619</v>
       </c>
       <c r="U17" t="n">
-        <v>3777.688995786595</v>
+        <v>3777.688995786592</v>
       </c>
       <c r="V17" t="n">
-        <v>3478.869616935729</v>
+        <v>3478.869616935726</v>
       </c>
       <c r="W17" t="n">
-        <v>3158.344470158319</v>
+        <v>3158.344470158316</v>
       </c>
       <c r="X17" t="n">
-        <v>2817.122220389944</v>
+        <v>2817.122220389941</v>
       </c>
       <c r="Y17" t="n">
-        <v>2473.735229400681</v>
+        <v>2459.226396906834</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>618.1702673969489</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9328123914935</v>
+        <v>458.9328123914934</v>
       </c>
       <c r="F18" t="n">
         <v>312.3982544183784</v>
@@ -5586,34 +5586,34 @@
         <v>176.4361676801427</v>
       </c>
       <c r="H18" t="n">
-        <v>89.80721880476433</v>
+        <v>89.8072188047643</v>
       </c>
       <c r="I18" t="n">
-        <v>84.60674921857292</v>
+        <v>84.60674921857286</v>
       </c>
       <c r="J18" t="n">
-        <v>215.4170428088452</v>
+        <v>215.4170428088451</v>
       </c>
       <c r="K18" t="n">
-        <v>517.1474944365624</v>
+        <v>517.1474944365621</v>
       </c>
       <c r="L18" t="n">
-        <v>969.1838636556583</v>
+        <v>969.1838636556577</v>
       </c>
       <c r="M18" t="n">
-        <v>1516.045853528504</v>
+        <v>1516.045853528503</v>
       </c>
       <c r="N18" t="n">
-        <v>2091.790297950395</v>
+        <v>1938.206971398371</v>
       </c>
       <c r="O18" t="n">
-        <v>2555.831644425932</v>
+        <v>1938.206971398371</v>
       </c>
       <c r="P18" t="n">
-        <v>2555.831644425932</v>
+        <v>2323.758677597596</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.831644425932</v>
+        <v>2531.570586360502</v>
       </c>
       <c r="R18" t="n">
         <v>2555.831644425932</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>870.5681315719146</v>
+        <v>870.5681315719137</v>
       </c>
       <c r="C19" t="n">
-        <v>733.8754571367123</v>
+        <v>733.8754571367114</v>
       </c>
       <c r="D19" t="n">
-        <v>616.0023262170808</v>
+        <v>616.0023262170803</v>
       </c>
       <c r="E19" t="n">
-        <v>500.3327411273923</v>
+        <v>500.3327411273918</v>
       </c>
       <c r="F19" t="n">
-        <v>385.6863021221865</v>
+        <v>385.6863021221861</v>
       </c>
       <c r="G19" t="n">
-        <v>250.5631701776921</v>
+        <v>250.5631701776917</v>
       </c>
       <c r="H19" t="n">
-        <v>139.5785816332018</v>
+        <v>139.5785816332016</v>
       </c>
       <c r="I19" t="n">
-        <v>84.60674921857292</v>
+        <v>84.60674921857286</v>
       </c>
       <c r="J19" t="n">
-        <v>184.6273103337088</v>
+        <v>184.6273103337089</v>
       </c>
       <c r="K19" t="n">
         <v>458.498948653947</v>
       </c>
       <c r="L19" t="n">
-        <v>855.6491481937928</v>
+        <v>855.6491481937927</v>
       </c>
       <c r="M19" t="n">
         <v>1283.059601528527</v>
       </c>
       <c r="N19" t="n">
-        <v>1706.493227674895</v>
+        <v>1706.493227674894</v>
       </c>
       <c r="O19" t="n">
-        <v>2083.998848209795</v>
+        <v>2083.998848209793</v>
       </c>
       <c r="P19" t="n">
-        <v>2388.060450225581</v>
+        <v>2388.060450225579</v>
       </c>
       <c r="Q19" t="n">
-        <v>2524.864233569648</v>
+        <v>2524.864233569647</v>
       </c>
       <c r="R19" t="n">
-        <v>2482.393887967641</v>
+        <v>2482.39388796764</v>
       </c>
       <c r="S19" t="n">
-        <v>2328.810494946747</v>
+        <v>2328.810494946746</v>
       </c>
       <c r="T19" t="n">
-        <v>2140.723862630783</v>
+        <v>2140.723862630782</v>
       </c>
       <c r="U19" t="n">
-        <v>1883.882842223026</v>
+        <v>1883.882842223025</v>
       </c>
       <c r="V19" t="n">
-        <v>1661.441862509844</v>
+        <v>1661.441862509843</v>
       </c>
       <c r="W19" t="n">
-        <v>1404.268200965588</v>
+        <v>1404.268200965587</v>
       </c>
       <c r="X19" t="n">
-        <v>1208.522158560275</v>
+        <v>1208.522158560274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1019.97308790945</v>
+        <v>1019.973087909449</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1456.637699267511</v>
       </c>
       <c r="E20" t="n">
-        <v>1103.092955161972</v>
+        <v>1103.092955161971</v>
       </c>
       <c r="F20" t="n">
-        <v>724.3505588650685</v>
+        <v>724.3505588650684</v>
       </c>
       <c r="G20" t="n">
         <v>342.2711089331671</v>
       </c>
       <c r="H20" t="n">
-        <v>84.60674921857292</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="I20" t="n">
-        <v>84.60674921857292</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="J20" t="n">
-        <v>335.8321716727469</v>
+        <v>335.8321716727478</v>
       </c>
       <c r="K20" t="n">
-        <v>763.0924747050108</v>
+        <v>763.0924747050117</v>
       </c>
       <c r="L20" t="n">
-        <v>1330.048423414863</v>
+        <v>1330.048423414864</v>
       </c>
       <c r="M20" t="n">
-        <v>1992.565594514835</v>
+        <v>1992.565594514836</v>
       </c>
       <c r="N20" t="n">
-        <v>2670.416794462415</v>
+        <v>2670.416794462416</v>
       </c>
       <c r="O20" t="n">
         <v>3297.157199728452</v>
@@ -5771,31 +5771,31 @@
         <v>3797.564634612315</v>
       </c>
       <c r="Q20" t="n">
-        <v>4125.177031634458</v>
+        <v>4125.177031634457</v>
       </c>
       <c r="R20" t="n">
-        <v>4230.337460928646</v>
+        <v>4230.337460928645</v>
       </c>
       <c r="S20" t="n">
-        <v>4183.878176248724</v>
+        <v>4169.369343754879</v>
       </c>
       <c r="T20" t="n">
-        <v>4013.424837175467</v>
+        <v>3998.916004681621</v>
       </c>
       <c r="U20" t="n">
-        <v>3792.197828280439</v>
+        <v>3777.688995786594</v>
       </c>
       <c r="V20" t="n">
-        <v>3493.378449429573</v>
+        <v>3478.869616935728</v>
       </c>
       <c r="W20" t="n">
-        <v>3172.853302652164</v>
+        <v>3158.344470158318</v>
       </c>
       <c r="X20" t="n">
-        <v>2831.631052883788</v>
+        <v>2817.122220389943</v>
       </c>
       <c r="Y20" t="n">
-        <v>2473.735229400681</v>
+        <v>2459.226396906836</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>89.80721880476435</v>
       </c>
       <c r="I21" t="n">
-        <v>84.60674921857292</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="J21" t="n">
-        <v>84.60674921857292</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="K21" t="n">
         <v>386.33720084629</v>
       </c>
       <c r="L21" t="n">
-        <v>386.33720084629</v>
+        <v>696.678352662764</v>
       </c>
       <c r="M21" t="n">
-        <v>933.1991907191359</v>
+        <v>1243.54034253561</v>
       </c>
       <c r="N21" t="n">
-        <v>1508.943635141027</v>
+        <v>1819.2847869575</v>
       </c>
       <c r="O21" t="n">
-        <v>2013.417525781122</v>
+        <v>2323.758677597596</v>
       </c>
       <c r="P21" t="n">
-        <v>2398.969231980347</v>
+        <v>2323.758677597596</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.831644425932</v>
+        <v>2531.570586360502</v>
       </c>
       <c r="R21" t="n">
         <v>2555.831644425932</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.5681315719141</v>
+        <v>870.5681315719144</v>
       </c>
       <c r="C22" t="n">
-        <v>733.8754571367118</v>
+        <v>733.875457136712</v>
       </c>
       <c r="D22" t="n">
-        <v>616.0023262170807</v>
+        <v>616.002326217081</v>
       </c>
       <c r="E22" t="n">
-        <v>500.3327411273922</v>
+        <v>500.3327411273925</v>
       </c>
       <c r="F22" t="n">
-        <v>385.6863021221864</v>
+        <v>385.6863021221868</v>
       </c>
       <c r="G22" t="n">
-        <v>250.563170177692</v>
+        <v>250.5631701776924</v>
       </c>
       <c r="H22" t="n">
-        <v>139.5785816332017</v>
+        <v>139.5785816332018</v>
       </c>
       <c r="I22" t="n">
-        <v>84.60674921857292</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="J22" t="n">
         <v>184.6273103337088</v>
@@ -5969,28 +5969,28 @@
         <v>1768.151056887712</v>
       </c>
       <c r="D23" t="n">
-        <v>1442.128866773667</v>
+        <v>1456.637699267511</v>
       </c>
       <c r="E23" t="n">
-        <v>1088.584122668127</v>
+        <v>1103.092955161971</v>
       </c>
       <c r="F23" t="n">
-        <v>709.8417263712241</v>
+        <v>724.3505588650684</v>
       </c>
       <c r="G23" t="n">
         <v>342.2711089331671</v>
       </c>
       <c r="H23" t="n">
-        <v>84.60674921857292</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="I23" t="n">
-        <v>84.60674921857292</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="J23" t="n">
-        <v>335.8321716727469</v>
+        <v>335.8321716727468</v>
       </c>
       <c r="K23" t="n">
-        <v>763.0924747050109</v>
+        <v>763.0924747050107</v>
       </c>
       <c r="L23" t="n">
         <v>1330.048423414863</v>
@@ -6005,34 +6005,34 @@
         <v>3297.157199728452</v>
       </c>
       <c r="P23" t="n">
-        <v>3797.564634612316</v>
+        <v>3797.564634612315</v>
       </c>
       <c r="Q23" t="n">
-        <v>4125.177031634458</v>
+        <v>4125.177031634457</v>
       </c>
       <c r="R23" t="n">
-        <v>4230.337460928646</v>
+        <v>4230.337460928645</v>
       </c>
       <c r="S23" t="n">
-        <v>4169.36934375488</v>
+        <v>4169.369343754879</v>
       </c>
       <c r="T23" t="n">
-        <v>3998.916004681622</v>
+        <v>3998.916004681621</v>
       </c>
       <c r="U23" t="n">
-        <v>3777.688995786595</v>
+        <v>3777.688995786594</v>
       </c>
       <c r="V23" t="n">
-        <v>3478.869616935729</v>
+        <v>3478.869616935728</v>
       </c>
       <c r="W23" t="n">
-        <v>3158.344470158319</v>
+        <v>3158.344470158318</v>
       </c>
       <c r="X23" t="n">
-        <v>2817.122220389944</v>
+        <v>2817.122220389943</v>
       </c>
       <c r="Y23" t="n">
-        <v>2459.226396906837</v>
+        <v>2459.226396906836</v>
       </c>
     </row>
     <row r="24">
@@ -6063,22 +6063,22 @@
         <v>89.80721880476433</v>
       </c>
       <c r="I24" t="n">
-        <v>84.60674921857292</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="J24" t="n">
-        <v>84.60674921857292</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="K24" t="n">
-        <v>84.60674921857292</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="L24" t="n">
-        <v>536.6431184376688</v>
+        <v>335.3877045289679</v>
       </c>
       <c r="M24" t="n">
-        <v>1083.505108310515</v>
+        <v>882.2496944018137</v>
       </c>
       <c r="N24" t="n">
-        <v>1659.249552732406</v>
+        <v>1457.994138823704</v>
       </c>
       <c r="O24" t="n">
         <v>1962.4680294638</v>
@@ -6127,31 +6127,31 @@
         <v>733.8754571367122</v>
       </c>
       <c r="D25" t="n">
-        <v>616.002326217081</v>
+        <v>616.0023262170811</v>
       </c>
       <c r="E25" t="n">
-        <v>500.3327411273925</v>
+        <v>500.3327411273926</v>
       </c>
       <c r="F25" t="n">
-        <v>385.6863021221867</v>
+        <v>385.6863021221869</v>
       </c>
       <c r="G25" t="n">
-        <v>250.563170177692</v>
+        <v>250.5631701776923</v>
       </c>
       <c r="H25" t="n">
         <v>139.5785816332018</v>
       </c>
       <c r="I25" t="n">
-        <v>84.60674921857292</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="J25" t="n">
-        <v>184.6273103337089</v>
+        <v>184.6273103337088</v>
       </c>
       <c r="K25" t="n">
         <v>458.498948653947</v>
       </c>
       <c r="L25" t="n">
-        <v>855.6491481937928</v>
+        <v>855.6491481937926</v>
       </c>
       <c r="M25" t="n">
         <v>1283.059601528527</v>
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2197.99161077554</v>
+        <v>2000.053114740386</v>
       </c>
       <c r="C26" t="n">
-        <v>1848.170483503454</v>
+        <v>1650.231987468299</v>
       </c>
       <c r="D26" t="n">
-        <v>1509.046174565028</v>
+        <v>1311.107678529874</v>
       </c>
       <c r="E26" t="n">
-        <v>1142.399311635109</v>
+        <v>944.4608155999549</v>
       </c>
       <c r="F26" t="n">
-        <v>750.5547965138271</v>
+        <v>552.6163004786727</v>
       </c>
       <c r="G26" t="n">
         <v>355.3732277575464</v>
@@ -6251,25 +6251,25 @@
         <v>4230.337460928647</v>
       </c>
       <c r="S26" t="n">
-        <v>4170.650263068019</v>
+        <v>4156.267224930501</v>
       </c>
       <c r="T26" t="n">
-        <v>4170.650263068019</v>
+        <v>3972.711767032864</v>
       </c>
       <c r="U26" t="n">
-        <v>3936.321135348612</v>
+        <v>3738.382639313458</v>
       </c>
       <c r="V26" t="n">
-        <v>3624.399637673367</v>
+        <v>3426.461141638212</v>
       </c>
       <c r="W26" t="n">
-        <v>3290.772372071578</v>
+        <v>3092.833876036423</v>
       </c>
       <c r="X26" t="n">
-        <v>2936.448003478823</v>
+        <v>2738.509507443669</v>
       </c>
       <c r="Y26" t="n">
-        <v>2565.450061171337</v>
+        <v>2367.511565136182</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6303,19 @@
         <v>84.60674921857293</v>
       </c>
       <c r="J27" t="n">
-        <v>84.60674921857293</v>
+        <v>215.4170428088453</v>
       </c>
       <c r="K27" t="n">
-        <v>84.60674921857293</v>
+        <v>405.9522671172875</v>
       </c>
       <c r="L27" t="n">
-        <v>536.6431184376688</v>
+        <v>857.9886363363834</v>
       </c>
       <c r="M27" t="n">
-        <v>1083.505108310515</v>
+        <v>857.9886363363834</v>
       </c>
       <c r="N27" t="n">
-        <v>1659.249552732406</v>
+        <v>1433.733080758274</v>
       </c>
       <c r="O27" t="n">
         <v>1938.20697139837</v>
@@ -6367,13 +6367,13 @@
         <v>369.1479258707154</v>
       </c>
       <c r="E28" t="n">
-        <v>369.1479258707154</v>
+        <v>240.3762219566475</v>
       </c>
       <c r="F28" t="n">
-        <v>356.9187073563162</v>
+        <v>112.6276641270624</v>
       </c>
       <c r="G28" t="n">
-        <v>208.6934565874425</v>
+        <v>84.60674921857293</v>
       </c>
       <c r="H28" t="n">
         <v>84.60674921857293</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2197.99161077554</v>
+        <v>2000.053114740385</v>
       </c>
       <c r="C29" t="n">
-        <v>1848.170483503454</v>
+        <v>1650.231987468298</v>
       </c>
       <c r="D29" t="n">
-        <v>1509.046174565028</v>
+        <v>1311.107678529873</v>
       </c>
       <c r="E29" t="n">
-        <v>1142.399311635109</v>
+        <v>944.460815599954</v>
       </c>
       <c r="F29" t="n">
-        <v>750.5547965138271</v>
+        <v>552.6163004786717</v>
       </c>
       <c r="G29" t="n">
-        <v>355.3732277575464</v>
+        <v>157.4347317223911</v>
       </c>
       <c r="H29" t="n">
         <v>84.60674921857292</v>
@@ -6479,7 +6479,7 @@
         <v>3297.157199728452</v>
       </c>
       <c r="P29" t="n">
-        <v>3797.564634612315</v>
+        <v>3797.564634612316</v>
       </c>
       <c r="Q29" t="n">
         <v>4125.177031634458</v>
@@ -6497,16 +6497,16 @@
         <v>3738.382639313457</v>
       </c>
       <c r="V29" t="n">
-        <v>3624.399637673367</v>
+        <v>3426.461141638211</v>
       </c>
       <c r="W29" t="n">
-        <v>3290.772372071578</v>
+        <v>3092.833876036422</v>
       </c>
       <c r="X29" t="n">
-        <v>2936.448003478823</v>
+        <v>2738.509507443668</v>
       </c>
       <c r="Y29" t="n">
-        <v>2565.450061171337</v>
+        <v>2367.511565136181</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>84.60674921857292</v>
       </c>
       <c r="J30" t="n">
-        <v>215.4170428088452</v>
+        <v>84.60674921857292</v>
       </c>
       <c r="K30" t="n">
-        <v>517.1474944365624</v>
+        <v>386.3372008462901</v>
       </c>
       <c r="L30" t="n">
-        <v>969.1838636556583</v>
+        <v>838.373570065386</v>
       </c>
       <c r="M30" t="n">
-        <v>969.1838636556583</v>
+        <v>1385.235559938232</v>
       </c>
       <c r="N30" t="n">
-        <v>1544.928308077549</v>
+        <v>1433.733080758274</v>
       </c>
       <c r="O30" t="n">
-        <v>2049.402198717645</v>
+        <v>1938.20697139837</v>
       </c>
       <c r="P30" t="n">
-        <v>2434.95390491687</v>
+        <v>2323.758677597595</v>
       </c>
       <c r="Q30" t="n">
-        <v>2555.831644425932</v>
+        <v>2531.570586360502</v>
       </c>
       <c r="R30" t="n">
         <v>2555.831644425932</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>649.9179688743081</v>
+        <v>649.9179688743075</v>
       </c>
       <c r="C31" t="n">
-        <v>500.1231756147265</v>
+        <v>500.1231756147258</v>
       </c>
       <c r="D31" t="n">
-        <v>369.1479258707161</v>
+        <v>369.1479258707154</v>
       </c>
       <c r="E31" t="n">
-        <v>369.1479258707161</v>
+        <v>356.9187073563162</v>
       </c>
       <c r="F31" t="n">
-        <v>356.9187073563161</v>
+        <v>356.9187073563162</v>
       </c>
       <c r="G31" t="n">
         <v>208.6934565874424</v>
@@ -6622,22 +6622,22 @@
         <v>171.7859236739347</v>
       </c>
       <c r="K31" t="n">
-        <v>432.8161753343987</v>
+        <v>432.8161753343986</v>
       </c>
       <c r="L31" t="n">
-        <v>817.1249882144704</v>
+        <v>817.1249882144702</v>
       </c>
       <c r="M31" t="n">
-        <v>1231.694054889431</v>
+        <v>1231.69405488943</v>
       </c>
       <c r="N31" t="n">
         <v>1642.286294376024</v>
       </c>
       <c r="O31" t="n">
-        <v>2006.95052825115</v>
+        <v>2006.950528251149</v>
       </c>
       <c r="P31" t="n">
-        <v>2298.170743607162</v>
+        <v>2298.170743607161</v>
       </c>
       <c r="Q31" t="n">
         <v>2422.133140291455</v>
@@ -6646,7 +6646,7 @@
         <v>2366.560675865069</v>
       </c>
       <c r="S31" t="n">
-        <v>2199.875164019796</v>
+        <v>2199.875164019795</v>
       </c>
       <c r="T31" t="n">
         <v>1998.686412879452</v>
@@ -6655,7 +6655,7 @@
         <v>1728.743273647316</v>
       </c>
       <c r="V31" t="n">
-        <v>1493.200175109755</v>
+        <v>1493.200175109754</v>
       </c>
       <c r="W31" t="n">
         <v>1222.924394741119</v>
@@ -6664,7 +6664,7 @@
         <v>1014.076233511427</v>
       </c>
       <c r="Y31" t="n">
-        <v>812.4250440362225</v>
+        <v>812.4250440362218</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2119.378897829264</v>
+        <v>2104.870065335419</v>
       </c>
       <c r="C32" t="n">
-        <v>1782.659889381557</v>
+        <v>1768.151056887712</v>
       </c>
       <c r="D32" t="n">
-        <v>1456.637699267511</v>
+        <v>1442.128866773667</v>
       </c>
       <c r="E32" t="n">
-        <v>1103.092955161972</v>
+        <v>1088.584122668127</v>
       </c>
       <c r="F32" t="n">
         <v>724.3505588650685</v>
@@ -6692,58 +6692,58 @@
         <v>342.2711089331671</v>
       </c>
       <c r="H32" t="n">
-        <v>84.60674921857293</v>
+        <v>84.60674921857292</v>
       </c>
       <c r="I32" t="n">
-        <v>84.60674921857293</v>
+        <v>84.60674921857292</v>
       </c>
       <c r="J32" t="n">
         <v>335.8321716727469</v>
       </c>
       <c r="K32" t="n">
-        <v>763.0924747050117</v>
+        <v>763.0924747050109</v>
       </c>
       <c r="L32" t="n">
-        <v>1330.048423414864</v>
+        <v>1330.048423414863</v>
       </c>
       <c r="M32" t="n">
-        <v>1992.565594514836</v>
+        <v>1992.565594514835</v>
       </c>
       <c r="N32" t="n">
-        <v>2670.416794462416</v>
+        <v>2670.416794462415</v>
       </c>
       <c r="O32" t="n">
-        <v>3297.157199728453</v>
+        <v>3297.157199728452</v>
       </c>
       <c r="P32" t="n">
         <v>3797.564634612316</v>
       </c>
       <c r="Q32" t="n">
-        <v>4125.177031634459</v>
+        <v>4125.177031634458</v>
       </c>
       <c r="R32" t="n">
-        <v>4230.337460928647</v>
+        <v>4230.337460928646</v>
       </c>
       <c r="S32" t="n">
-        <v>4169.369343754881</v>
+        <v>4169.36934375488</v>
       </c>
       <c r="T32" t="n">
-        <v>4013.424837175467</v>
+        <v>3998.916004681622</v>
       </c>
       <c r="U32" t="n">
-        <v>3792.197828280439</v>
+        <v>3777.688995786595</v>
       </c>
       <c r="V32" t="n">
-        <v>3493.378449429573</v>
+        <v>3478.869616935729</v>
       </c>
       <c r="W32" t="n">
-        <v>3172.853302652164</v>
+        <v>3158.344470158319</v>
       </c>
       <c r="X32" t="n">
-        <v>2831.631052883788</v>
+        <v>2817.122220389944</v>
       </c>
       <c r="Y32" t="n">
-        <v>2473.735229400681</v>
+        <v>2459.226396906837</v>
       </c>
     </row>
     <row r="33">
@@ -6771,22 +6771,22 @@
         <v>176.4361676801427</v>
       </c>
       <c r="H33" t="n">
-        <v>89.80721880476435</v>
+        <v>89.80721880476433</v>
       </c>
       <c r="I33" t="n">
-        <v>84.60674921857293</v>
+        <v>84.60674921857292</v>
       </c>
       <c r="J33" t="n">
-        <v>215.4170428088453</v>
+        <v>84.60674921857292</v>
       </c>
       <c r="K33" t="n">
-        <v>517.1474944365624</v>
+        <v>386.3372008462901</v>
       </c>
       <c r="L33" t="n">
-        <v>969.1838636556583</v>
+        <v>838.373570065386</v>
       </c>
       <c r="M33" t="n">
-        <v>969.1838636556583</v>
+        <v>857.9886363363834</v>
       </c>
       <c r="N33" t="n">
         <v>1433.733080758274</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>870.5681315719144</v>
+        <v>870.5681315719146</v>
       </c>
       <c r="C34" t="n">
-        <v>733.875457136712</v>
+        <v>733.8754571367123</v>
       </c>
       <c r="D34" t="n">
-        <v>616.002326217081</v>
+        <v>616.0023262170812</v>
       </c>
       <c r="E34" t="n">
-        <v>500.3327411273925</v>
+        <v>500.3327411273927</v>
       </c>
       <c r="F34" t="n">
-        <v>385.6863021221868</v>
+        <v>385.6863021221865</v>
       </c>
       <c r="G34" t="n">
         <v>250.563170177692</v>
@@ -6853,13 +6853,13 @@
         <v>139.5785816332018</v>
       </c>
       <c r="I34" t="n">
-        <v>84.60674921857293</v>
+        <v>84.60674921857292</v>
       </c>
       <c r="J34" t="n">
         <v>184.6273103337089</v>
       </c>
       <c r="K34" t="n">
-        <v>458.498948653947</v>
+        <v>458.4989486539471</v>
       </c>
       <c r="L34" t="n">
         <v>855.6491481937928</v>
@@ -6871,16 +6871,16 @@
         <v>1706.493227674895</v>
       </c>
       <c r="O34" t="n">
-        <v>2083.998848209794</v>
+        <v>2083.998848209795</v>
       </c>
       <c r="P34" t="n">
-        <v>2388.06045022558</v>
+        <v>2388.060450225581</v>
       </c>
       <c r="Q34" t="n">
         <v>2524.864233569648</v>
       </c>
       <c r="R34" t="n">
-        <v>2482.393887967642</v>
+        <v>2482.393887967641</v>
       </c>
       <c r="S34" t="n">
         <v>2328.810494946747</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2119.378897829264</v>
+        <v>2104.87006533542</v>
       </c>
       <c r="C35" t="n">
-        <v>1782.659889381557</v>
+        <v>1768.151056887713</v>
       </c>
       <c r="D35" t="n">
         <v>1456.637699267511</v>
@@ -6935,19 +6935,19 @@
         <v>84.60674921857293</v>
       </c>
       <c r="J35" t="n">
-        <v>335.8321716727473</v>
+        <v>335.8321716727469</v>
       </c>
       <c r="K35" t="n">
-        <v>763.0924747050115</v>
+        <v>763.0924747050112</v>
       </c>
       <c r="L35" t="n">
         <v>1330.048423414863</v>
       </c>
       <c r="M35" t="n">
-        <v>1992.565594514836</v>
+        <v>1992.565594514835</v>
       </c>
       <c r="N35" t="n">
-        <v>2670.416794462416</v>
+        <v>2670.416794462415</v>
       </c>
       <c r="O35" t="n">
         <v>3297.157199728453</v>
@@ -6968,19 +6968,19 @@
         <v>3998.916004681623</v>
       </c>
       <c r="U35" t="n">
-        <v>3792.197828280439</v>
+        <v>3777.688995786596</v>
       </c>
       <c r="V35" t="n">
-        <v>3493.378449429573</v>
+        <v>3478.869616935729</v>
       </c>
       <c r="W35" t="n">
-        <v>3172.853302652164</v>
+        <v>3158.34447015832</v>
       </c>
       <c r="X35" t="n">
-        <v>2831.631052883788</v>
+        <v>2817.122220389945</v>
       </c>
       <c r="Y35" t="n">
-        <v>2473.735229400681</v>
+        <v>2459.226396906838</v>
       </c>
     </row>
     <row r="36">
@@ -7014,28 +7014,28 @@
         <v>84.60674921857293</v>
       </c>
       <c r="J36" t="n">
-        <v>84.60674921857293</v>
+        <v>215.4170428088453</v>
       </c>
       <c r="K36" t="n">
-        <v>84.60674921857293</v>
+        <v>363.5641678845373</v>
       </c>
       <c r="L36" t="n">
-        <v>536.6431184376688</v>
+        <v>815.6005371036332</v>
       </c>
       <c r="M36" t="n">
-        <v>1083.505108310515</v>
+        <v>1362.462526976479</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.249552732406</v>
+        <v>1938.20697139837</v>
       </c>
       <c r="O36" t="n">
-        <v>1962.4680294638</v>
+        <v>1938.20697139837</v>
       </c>
       <c r="P36" t="n">
-        <v>2348.019735663025</v>
+        <v>2323.758677597595</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.831644425932</v>
+        <v>2531.570586360502</v>
       </c>
       <c r="R36" t="n">
         <v>2555.831644425932</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>870.5681315719146</v>
+        <v>870.5681315719141</v>
       </c>
       <c r="C37" t="n">
-        <v>733.8754571367123</v>
+        <v>733.8754571367118</v>
       </c>
       <c r="D37" t="n">
-        <v>616.0023262170812</v>
+        <v>616.0023262170807</v>
       </c>
       <c r="E37" t="n">
-        <v>500.3327411273927</v>
+        <v>500.3327411273923</v>
       </c>
       <c r="F37" t="n">
-        <v>385.6863021221865</v>
+        <v>385.6863021221866</v>
       </c>
       <c r="G37" t="n">
         <v>250.563170177692</v>
@@ -7093,13 +7093,13 @@
         <v>84.60674921857293</v>
       </c>
       <c r="J37" t="n">
-        <v>184.6273103337089</v>
+        <v>184.6273103337087</v>
       </c>
       <c r="K37" t="n">
-        <v>458.4989486539471</v>
+        <v>458.4989486539469</v>
       </c>
       <c r="L37" t="n">
-        <v>855.6491481937928</v>
+        <v>855.6491481937927</v>
       </c>
       <c r="M37" t="n">
         <v>1283.059601528527</v>
@@ -7108,10 +7108,10 @@
         <v>1706.493227674895</v>
       </c>
       <c r="O37" t="n">
-        <v>2083.998848209795</v>
+        <v>2083.998848209794</v>
       </c>
       <c r="P37" t="n">
-        <v>2388.060450225581</v>
+        <v>2388.06045022558</v>
       </c>
       <c r="Q37" t="n">
         <v>2524.864233569648</v>
@@ -7123,7 +7123,7 @@
         <v>2328.810494946747</v>
       </c>
       <c r="T37" t="n">
-        <v>2140.723862630783</v>
+        <v>2140.723862630782</v>
       </c>
       <c r="U37" t="n">
         <v>1883.882842223026</v>
@@ -7138,7 +7138,7 @@
         <v>1208.522158560275</v>
       </c>
       <c r="Y37" t="n">
-        <v>1019.97308790945</v>
+        <v>1019.973087909449</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2119.378897829264</v>
+        <v>2104.87006533542</v>
       </c>
       <c r="C38" t="n">
-        <v>1782.659889381557</v>
+        <v>1768.151056887713</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.637699267511</v>
+        <v>1442.128866773668</v>
       </c>
       <c r="E38" t="n">
-        <v>1103.092955161972</v>
+        <v>1088.584122668128</v>
       </c>
       <c r="F38" t="n">
         <v>724.3505588650685</v>
@@ -7172,25 +7172,25 @@
         <v>84.60674921857293</v>
       </c>
       <c r="J38" t="n">
-        <v>335.8321716727473</v>
+        <v>335.8321716727469</v>
       </c>
       <c r="K38" t="n">
-        <v>763.0924747050115</v>
+        <v>763.0924747050112</v>
       </c>
       <c r="L38" t="n">
         <v>1330.048423414863</v>
       </c>
       <c r="M38" t="n">
-        <v>1992.565594514836</v>
+        <v>1992.565594514835</v>
       </c>
       <c r="N38" t="n">
-        <v>2670.416794462416</v>
+        <v>2670.416794462415</v>
       </c>
       <c r="O38" t="n">
         <v>3297.157199728453</v>
       </c>
       <c r="P38" t="n">
-        <v>3797.564634612317</v>
+        <v>3797.564634612316</v>
       </c>
       <c r="Q38" t="n">
         <v>4125.177031634459</v>
@@ -7202,22 +7202,22 @@
         <v>4169.369343754881</v>
       </c>
       <c r="T38" t="n">
-        <v>4013.424837175467</v>
+        <v>3998.916004681623</v>
       </c>
       <c r="U38" t="n">
-        <v>3792.197828280439</v>
+        <v>3777.688995786596</v>
       </c>
       <c r="V38" t="n">
-        <v>3493.378449429573</v>
+        <v>3478.869616935729</v>
       </c>
       <c r="W38" t="n">
-        <v>3172.853302652164</v>
+        <v>3158.34447015832</v>
       </c>
       <c r="X38" t="n">
-        <v>2831.631052883788</v>
+        <v>2817.122220389945</v>
       </c>
       <c r="Y38" t="n">
-        <v>2473.735229400681</v>
+        <v>2459.226396906838</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>84.60674921857293</v>
       </c>
       <c r="J39" t="n">
-        <v>84.60674921857293</v>
+        <v>215.4170428088453</v>
       </c>
       <c r="K39" t="n">
-        <v>84.60674921857293</v>
+        <v>517.1474944365624</v>
       </c>
       <c r="L39" t="n">
-        <v>536.6431184376688</v>
+        <v>518.938555226444</v>
       </c>
       <c r="M39" t="n">
-        <v>1083.505108310515</v>
+        <v>1065.80054509929</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.249552732406</v>
+        <v>1641.544989521181</v>
       </c>
       <c r="O39" t="n">
-        <v>1962.4680294638</v>
+        <v>2146.018880161277</v>
       </c>
       <c r="P39" t="n">
-        <v>2348.019735663025</v>
+        <v>2531.570586360502</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.831644425932</v>
+        <v>2531.570586360502</v>
       </c>
       <c r="R39" t="n">
         <v>2555.831644425932</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.5681315719146</v>
+        <v>870.5681315719141</v>
       </c>
       <c r="C40" t="n">
-        <v>733.8754571367123</v>
+        <v>733.8754571367118</v>
       </c>
       <c r="D40" t="n">
-        <v>616.0023262170812</v>
+        <v>616.0023262170807</v>
       </c>
       <c r="E40" t="n">
-        <v>500.3327411273927</v>
+        <v>500.3327411273922</v>
       </c>
       <c r="F40" t="n">
         <v>385.6863021221865</v>
@@ -7333,10 +7333,10 @@
         <v>184.6273103337089</v>
       </c>
       <c r="K40" t="n">
-        <v>458.4989486539471</v>
+        <v>458.4989486539467</v>
       </c>
       <c r="L40" t="n">
-        <v>855.6491481937928</v>
+        <v>855.6491481937925</v>
       </c>
       <c r="M40" t="n">
         <v>1283.059601528527</v>
@@ -7345,10 +7345,10 @@
         <v>1706.493227674895</v>
       </c>
       <c r="O40" t="n">
-        <v>2083.998848209795</v>
+        <v>2083.998848209794</v>
       </c>
       <c r="P40" t="n">
-        <v>2388.060450225581</v>
+        <v>2388.06045022558</v>
       </c>
       <c r="Q40" t="n">
         <v>2524.864233569648</v>
@@ -7360,7 +7360,7 @@
         <v>2328.810494946747</v>
       </c>
       <c r="T40" t="n">
-        <v>2140.723862630783</v>
+        <v>2140.723862630782</v>
       </c>
       <c r="U40" t="n">
         <v>1883.882842223026</v>
@@ -7375,7 +7375,7 @@
         <v>1208.522158560275</v>
       </c>
       <c r="Y40" t="n">
-        <v>1019.97308790945</v>
+        <v>1019.973087909449</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2234.227235839216</v>
+        <v>1951.738947988818</v>
       </c>
       <c r="C41" t="n">
-        <v>1878.366837723183</v>
+        <v>1595.878549872786</v>
       </c>
       <c r="D41" t="n">
-        <v>1533.203257940812</v>
+        <v>1250.714970090415</v>
       </c>
       <c r="E41" t="n">
-        <v>1160.517124166947</v>
+        <v>878.0288363165503</v>
       </c>
       <c r="F41" t="n">
-        <v>762.633338201719</v>
+        <v>480.1450503513221</v>
       </c>
       <c r="G41" t="n">
         <v>361.4124986014924</v>
@@ -7409,10 +7409,10 @@
         <v>84.60674921857293</v>
       </c>
       <c r="J41" t="n">
-        <v>335.8321716727469</v>
+        <v>335.8321716727473</v>
       </c>
       <c r="K41" t="n">
-        <v>763.092474705011</v>
+        <v>763.0924747050115</v>
       </c>
       <c r="L41" t="n">
         <v>1330.048423414863</v>
@@ -7427,7 +7427,7 @@
         <v>3297.157199728453</v>
       </c>
       <c r="P41" t="n">
-        <v>3797.564634612316</v>
+        <v>3797.564634612317</v>
       </c>
       <c r="Q41" t="n">
         <v>4125.177031634459</v>
@@ -7439,22 +7439,22 @@
         <v>4150.227954086556</v>
       </c>
       <c r="T41" t="n">
-        <v>4150.227954086556</v>
+        <v>3960.633225344972</v>
       </c>
       <c r="U41" t="n">
-        <v>4002.753114632017</v>
+        <v>3720.26482678162</v>
       </c>
       <c r="V41" t="n">
-        <v>3684.792346112826</v>
+        <v>3402.304058262428</v>
       </c>
       <c r="W41" t="n">
-        <v>3345.125809667091</v>
+        <v>3062.637521816694</v>
       </c>
       <c r="X41" t="n">
-        <v>2984.76217023039</v>
+        <v>2702.273882379993</v>
       </c>
       <c r="Y41" t="n">
-        <v>2607.724957078958</v>
+        <v>2325.236669228561</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>84.60674921857293</v>
       </c>
       <c r="J42" t="n">
-        <v>84.60674921857293</v>
+        <v>215.4170428088453</v>
       </c>
       <c r="K42" t="n">
-        <v>84.60674921857293</v>
+        <v>434.8347216663322</v>
       </c>
       <c r="L42" t="n">
-        <v>536.6431184376688</v>
+        <v>886.8710908854281</v>
       </c>
       <c r="M42" t="n">
-        <v>1083.505108310515</v>
+        <v>1433.733080758274</v>
       </c>
       <c r="N42" t="n">
-        <v>1659.249552732406</v>
+        <v>1433.733080758274</v>
       </c>
       <c r="O42" t="n">
-        <v>1962.4680294638</v>
+        <v>1938.20697139837</v>
       </c>
       <c r="P42" t="n">
-        <v>2348.019735663025</v>
+        <v>2323.758677597595</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.831644425932</v>
+        <v>2531.570586360502</v>
       </c>
       <c r="R42" t="n">
         <v>2555.831644425932</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>548.2118164455824</v>
+        <v>641.3691407964034</v>
       </c>
       <c r="C43" t="n">
-        <v>392.3777523420548</v>
+        <v>485.5350766928759</v>
       </c>
       <c r="D43" t="n">
-        <v>392.3777523420548</v>
+        <v>348.5205561049195</v>
       </c>
       <c r="E43" t="n">
-        <v>372.6590995049236</v>
+        <v>348.5205561049195</v>
       </c>
       <c r="F43" t="n">
-        <v>238.8712708313926</v>
+        <v>214.7327274313884</v>
       </c>
       <c r="G43" t="n">
-        <v>84.60674921857293</v>
+        <v>214.7327274313884</v>
       </c>
       <c r="H43" t="n">
         <v>84.60674921857293</v>
@@ -7609,10 +7609,10 @@
         <v>1139.336054844232</v>
       </c>
       <c r="X43" t="n">
-        <v>924.4486227705935</v>
+        <v>1017.605947121415</v>
       </c>
       <c r="Y43" t="n">
-        <v>716.7581624514428</v>
+        <v>809.9154868022638</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1951.738947988818</v>
+        <v>1951.738947988817</v>
       </c>
       <c r="C44" t="n">
-        <v>1595.878549872786</v>
+        <v>1595.878549872784</v>
       </c>
       <c r="D44" t="n">
-        <v>1250.714970090415</v>
+        <v>1250.714970090413</v>
       </c>
       <c r="E44" t="n">
-        <v>878.0288363165503</v>
+        <v>878.0288363165484</v>
       </c>
       <c r="F44" t="n">
-        <v>480.1450503513221</v>
+        <v>480.1450503513203</v>
       </c>
       <c r="G44" t="n">
-        <v>361.4124986014924</v>
+        <v>361.4124986014923</v>
       </c>
       <c r="H44" t="n">
-        <v>84.60674921857293</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="I44" t="n">
-        <v>84.60674921857293</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="J44" t="n">
-        <v>335.8321716727473</v>
+        <v>335.832171672746</v>
       </c>
       <c r="K44" t="n">
-        <v>763.0924747050115</v>
+        <v>763.09247470501</v>
       </c>
       <c r="L44" t="n">
-        <v>1330.048423414863</v>
+        <v>1330.048423414862</v>
       </c>
       <c r="M44" t="n">
-        <v>1992.565594514836</v>
+        <v>1992.565594514834</v>
       </c>
       <c r="N44" t="n">
-        <v>2670.416794462416</v>
+        <v>2670.416794462414</v>
       </c>
       <c r="O44" t="n">
-        <v>3297.157199728453</v>
+        <v>3297.157199728452</v>
       </c>
       <c r="P44" t="n">
-        <v>3797.564634612317</v>
+        <v>3797.564634612315</v>
       </c>
       <c r="Q44" t="n">
-        <v>4125.177031634459</v>
+        <v>4125.177031634457</v>
       </c>
       <c r="R44" t="n">
-        <v>4230.337460928647</v>
+        <v>4230.337460928645</v>
       </c>
       <c r="S44" t="n">
-        <v>4150.227954086556</v>
+        <v>4150.227954086554</v>
       </c>
       <c r="T44" t="n">
-        <v>3960.633225344972</v>
+        <v>3960.63322534497</v>
       </c>
       <c r="U44" t="n">
-        <v>3720.26482678162</v>
+        <v>3720.264826781618</v>
       </c>
       <c r="V44" t="n">
-        <v>3402.304058262428</v>
+        <v>3402.304058262427</v>
       </c>
       <c r="W44" t="n">
-        <v>3062.637521816694</v>
+        <v>3062.637521816692</v>
       </c>
       <c r="X44" t="n">
-        <v>2702.273882379993</v>
+        <v>2702.273882379991</v>
       </c>
       <c r="Y44" t="n">
-        <v>2325.236669228561</v>
+        <v>2325.236669228559</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>618.1702673969489</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9328123914935</v>
+        <v>458.9328123914934</v>
       </c>
       <c r="F45" t="n">
         <v>312.3982544183784</v>
@@ -7719,13 +7719,13 @@
         <v>176.4361676801427</v>
       </c>
       <c r="H45" t="n">
-        <v>89.80721880476435</v>
+        <v>89.80721880476432</v>
       </c>
       <c r="I45" t="n">
-        <v>84.60674921857293</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="J45" t="n">
-        <v>215.4170428088453</v>
+        <v>215.4170428088452</v>
       </c>
       <c r="K45" t="n">
         <v>517.1474944365624</v>
@@ -7734,16 +7734,16 @@
         <v>969.1838636556583</v>
       </c>
       <c r="M45" t="n">
-        <v>969.1838636556583</v>
+        <v>1516.045853528504</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.733080758274</v>
+        <v>1516.045853528504</v>
       </c>
       <c r="O45" t="n">
-        <v>1938.20697139837</v>
+        <v>2020.5197441686</v>
       </c>
       <c r="P45" t="n">
-        <v>2323.758677597595</v>
+        <v>2406.071450367825</v>
       </c>
       <c r="Q45" t="n">
         <v>2531.570586360502</v>
@@ -7783,34 +7783,34 @@
         <v>548.2118164455824</v>
       </c>
       <c r="C46" t="n">
-        <v>490.2200732380741</v>
+        <v>392.3777523420548</v>
       </c>
       <c r="D46" t="n">
         <v>353.2055526501177</v>
       </c>
       <c r="E46" t="n">
-        <v>218.394577892104</v>
+        <v>218.3945778921039</v>
       </c>
       <c r="F46" t="n">
-        <v>84.60674921857293</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="G46" t="n">
-        <v>84.60674921857293</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="H46" t="n">
-        <v>84.60674921857293</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="I46" t="n">
-        <v>84.60674921857293</v>
+        <v>84.6067492185729</v>
       </c>
       <c r="J46" t="n">
-        <v>165.8668343197833</v>
+        <v>165.8668343197832</v>
       </c>
       <c r="K46" t="n">
         <v>420.9779966260958</v>
       </c>
       <c r="L46" t="n">
-        <v>799.3677201520161</v>
+        <v>799.367720152016</v>
       </c>
       <c r="M46" t="n">
         <v>1208.017697472825</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>75.52794808997315</v>
+        <v>68.65190234826171</v>
       </c>
       <c r="K2" t="n">
-        <v>56.05824978144794</v>
+        <v>58.51642266066631</v>
       </c>
       <c r="L2" t="n">
-        <v>26.78994699523963</v>
+        <v>33.66599273695107</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.977105843813376</v>
+        <v>11.39497870630645</v>
       </c>
       <c r="P2" t="n">
         <v>40.80429423377234</v>
       </c>
       <c r="Q2" t="n">
-        <v>86.17771137138155</v>
+        <v>79.30166562967011</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8140,16 +8140,16 @@
         <v>66.8758356870906</v>
       </c>
       <c r="L4" t="n">
-        <v>53.16942317027382</v>
+        <v>46.57119745853053</v>
       </c>
       <c r="M4" t="n">
-        <v>45.81160299249012</v>
+        <v>52.68764873420156</v>
       </c>
       <c r="N4" t="n">
         <v>36.78541061280318</v>
       </c>
       <c r="O4" t="n">
-        <v>61.37159796783205</v>
+        <v>61.09377793786389</v>
       </c>
       <c r="P4" t="n">
         <v>72.76092136617375</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.52794808997315</v>
+        <v>68.65190234826171</v>
       </c>
       <c r="K5" t="n">
-        <v>56.05824978144794</v>
+        <v>51.64037691895487</v>
       </c>
       <c r="L5" t="n">
         <v>26.78994699523963</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>4.417872862493056</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>6.977105843813376</v>
+        <v>13.85315158552481</v>
       </c>
       <c r="P5" t="n">
         <v>40.80429423377234</v>
@@ -8374,13 +8374,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>66.8758356870906</v>
+        <v>59.99978994537916</v>
       </c>
       <c r="L7" t="n">
         <v>53.44724320024197</v>
       </c>
       <c r="M7" t="n">
-        <v>52.40982870423341</v>
+        <v>52.68764873420156</v>
       </c>
       <c r="N7" t="n">
         <v>43.66145635451461</v>
@@ -8389,7 +8389,7 @@
         <v>54.49555222612061</v>
       </c>
       <c r="P7" t="n">
-        <v>65.88487562446231</v>
+        <v>72.48310133620559</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>65.29236085646851</v>
+        <v>69.53733030881988</v>
       </c>
       <c r="K8" t="n">
         <v>46.60529509404799</v>
       </c>
       <c r="L8" t="n">
-        <v>34.48238818628893</v>
+        <v>34.48238818628892</v>
       </c>
       <c r="M8" t="n">
-        <v>4.808157550421539</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.68356505105964</v>
+        <v>0.3078477218925855</v>
       </c>
       <c r="P8" t="n">
         <v>35.11223672545287</v>
       </c>
       <c r="Q8" t="n">
-        <v>75.02716749247358</v>
+        <v>88.9660729197108</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>57.93692533070961</v>
+        <v>71.87583075794684</v>
       </c>
       <c r="L10" t="n">
-        <v>43.93144097118265</v>
+        <v>57.87034639841988</v>
       </c>
       <c r="M10" t="n">
-        <v>56.96725532498972</v>
+        <v>43.02834989775249</v>
       </c>
       <c r="N10" t="n">
-        <v>47.44405438494888</v>
+        <v>34.06833705578184</v>
       </c>
       <c r="O10" t="n">
-        <v>65.92480045234983</v>
+        <v>65.92480045234984</v>
       </c>
       <c r="P10" t="n">
-        <v>77.6763357595584</v>
+        <v>77.11314766148823</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>14.36374416890573</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>14.36374416890709</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>14.36374416890663</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>14.36374416890696</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>14.36374416890857</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.36374416890629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>14.36374416890658</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.36374416890604</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.20792265079217e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24209,7 +24209,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>14.36374416890675</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>14.3637441689059</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>195.9591110748029</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24491,10 +24491,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.23920775614229</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>181.719903318661</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>127.4839868749272</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>114.364145922034</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>119.0022925017804</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>122.8458402951808</v>
       </c>
       <c r="I28" t="n">
         <v>67.39321172661816</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>195.9591110748038</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24737,7 +24737,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>195.9591110748036</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>127.4839868749271</v>
+        <v>115.377060545672</v>
       </c>
       <c r="F31" t="n">
-        <v>114.3641459220332</v>
+        <v>126.4710722512892</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>67.39321172661813</v>
+        <v>67.39321172661816</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>14.3637441689059</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24968,7 +24968,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>14.36374416890524</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>14.36374416890521</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25208,7 +25208,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.36374416890536</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25400,7 +25400,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>14.36374416890499</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>14.36374416890524</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>279.6634049718929</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,10 +25679,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>187.6987814541674</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>91.96462351772576</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>135.6443753820768</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9413987016738</v>
+        <v>133.4628650104336</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>152.7218763966915</v>
       </c>
       <c r="H43" t="n">
-        <v>128.8247184306873</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>73.37208986212464</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>92.22575110731287</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>279.6634049718929</v>
+        <v>279.6634049718946</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>96.86389768705914</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>96.86389768705912</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>770604.9139415518</v>
+        <v>770604.913941552</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>770604.9139415519</v>
+        <v>770604.913941552</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>770604.9139415519</v>
+        <v>770604.9139415518</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>770604.913941552</v>
+        <v>770604.9139415518</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750368.8892278473</v>
+        <v>750368.8892278475</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741041.3265878684</v>
+        <v>741041.3265878683</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741041.3265878683</v>
+        <v>741041.3265878682</v>
       </c>
     </row>
   </sheetData>
@@ -26323,37 +26323,37 @@
         <v>676416.1930584616</v>
       </c>
       <c r="F2" t="n">
-        <v>676416.1930584615</v>
+        <v>676416.1930584614</v>
       </c>
       <c r="G2" t="n">
+        <v>676416.1930584612</v>
+      </c>
+      <c r="H2" t="n">
+        <v>676416.1930584619</v>
+      </c>
+      <c r="I2" t="n">
         <v>676416.1930584618</v>
-      </c>
-      <c r="H2" t="n">
-        <v>676416.1930584618</v>
-      </c>
-      <c r="I2" t="n">
-        <v>676416.193058462</v>
       </c>
       <c r="J2" t="n">
         <v>658367.8466921841</v>
       </c>
       <c r="K2" t="n">
-        <v>658367.8466921847</v>
+        <v>658367.8466921841</v>
       </c>
       <c r="L2" t="n">
         <v>676416.1930584616</v>
       </c>
       <c r="M2" t="n">
-        <v>676416.1930584618</v>
+        <v>676416.1930584621</v>
       </c>
       <c r="N2" t="n">
         <v>676416.1930584619</v>
       </c>
       <c r="O2" t="n">
+        <v>650048.6692024742</v>
+      </c>
+      <c r="P2" t="n">
         <v>650048.6692024743</v>
-      </c>
-      <c r="P2" t="n">
-        <v>650048.6692024742</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>1.711553068162175e-10</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12164.4243295779</v>
+        <v>12164.42432957793</v>
       </c>
       <c r="M3" t="n">
-        <v>260080.6231652263</v>
+        <v>260080.6231652264</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,37 +26421,37 @@
         <v>352713.0207990833</v>
       </c>
       <c r="D4" t="n">
-        <v>349671.7072326378</v>
+        <v>349671.7072326379</v>
       </c>
       <c r="E4" t="n">
-        <v>44333.92925304926</v>
+        <v>44333.9292530493</v>
       </c>
       <c r="F4" t="n">
-        <v>44333.92925304924</v>
+        <v>44333.9292530493</v>
       </c>
       <c r="G4" t="n">
-        <v>44333.92925304924</v>
+        <v>44333.9292530493</v>
       </c>
       <c r="H4" t="n">
-        <v>44333.92925304924</v>
+        <v>44333.92925304928</v>
       </c>
       <c r="I4" t="n">
-        <v>44333.92925304924</v>
+        <v>44333.92925304928</v>
       </c>
       <c r="J4" t="n">
         <v>31815.35865142408</v>
       </c>
       <c r="K4" t="n">
-        <v>31815.35865142411</v>
+        <v>31815.35865142408</v>
       </c>
       <c r="L4" t="n">
+        <v>44333.92925304926</v>
+      </c>
+      <c r="M4" t="n">
         <v>44333.92925304925</v>
       </c>
-      <c r="M4" t="n">
-        <v>44333.92925304926</v>
-      </c>
       <c r="N4" t="n">
-        <v>44333.92925304926</v>
+        <v>44333.92925304925</v>
       </c>
       <c r="O4" t="n">
         <v>26045.06764310276</v>
@@ -26482,10 +26482,10 @@
         <v>94765.49741757098</v>
       </c>
       <c r="G5" t="n">
-        <v>94765.49741757099</v>
+        <v>94765.49741757095</v>
       </c>
       <c r="H5" t="n">
-        <v>94765.49741757099</v>
+        <v>94765.49741757098</v>
       </c>
       <c r="I5" t="n">
         <v>94765.49741757099</v>
@@ -26497,7 +26497,7 @@
         <v>93675.03021039872</v>
       </c>
       <c r="L5" t="n">
-        <v>94765.49741757102</v>
+        <v>94765.49741757099</v>
       </c>
       <c r="M5" t="n">
         <v>94765.49741757102</v>
@@ -26509,7 +26509,7 @@
         <v>93172.39190442485</v>
       </c>
       <c r="P5" t="n">
-        <v>93172.39190442485</v>
+        <v>93172.39190442482</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-36771.91065323354</v>
+        <v>-36773.32403929014</v>
       </c>
       <c r="C6" t="n">
-        <v>282953.2855856578</v>
+        <v>282951.8721996013</v>
       </c>
       <c r="D6" t="n">
         <v>275190.5668980218</v>
       </c>
       <c r="E6" t="n">
-        <v>-551087.93610849</v>
+        <v>-551090.7944935798</v>
       </c>
       <c r="F6" t="n">
-        <v>537316.7663878415</v>
+        <v>537313.9080027514</v>
       </c>
       <c r="G6" t="n">
-        <v>537316.7663878412</v>
+        <v>537313.9080027513</v>
       </c>
       <c r="H6" t="n">
-        <v>537316.7663878417</v>
+        <v>537313.9080027518</v>
       </c>
       <c r="I6" t="n">
-        <v>537316.7663878417</v>
+        <v>537313.9080027516</v>
       </c>
       <c r="J6" t="n">
-        <v>515918.4011010033</v>
+        <v>515860.850757228</v>
       </c>
       <c r="K6" t="n">
-        <v>532877.4578303619</v>
+        <v>532819.907486586</v>
       </c>
       <c r="L6" t="n">
-        <v>525152.3420582635</v>
+        <v>525149.4836731737</v>
       </c>
       <c r="M6" t="n">
-        <v>277236.1432226152</v>
+        <v>277233.2848375259</v>
       </c>
       <c r="N6" t="n">
-        <v>537316.7663878415</v>
+        <v>537313.908002752</v>
       </c>
       <c r="O6" t="n">
-        <v>530831.2096549467</v>
+        <v>530748.4496824145</v>
       </c>
       <c r="P6" t="n">
-        <v>530831.2096549466</v>
+        <v>530748.4496824148</v>
       </c>
     </row>
   </sheetData>
@@ -26692,25 +26692,25 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="F2" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="G2" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="H2" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="I2" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="J2" t="n">
         <v>18.94997577164201</v>
       </c>
       <c r="K2" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="L2" t="n">
         <v>31.92107340777757</v>
@@ -26817,7 +26817,7 @@
         <v>1057.584365232161</v>
       </c>
       <c r="L4" t="n">
-        <v>1057.584365232162</v>
+        <v>1057.584365232161</v>
       </c>
       <c r="M4" t="n">
         <v>1057.584365232162</v>
@@ -26829,7 +26829,7 @@
         <v>1057.584365232162</v>
       </c>
       <c r="P4" t="n">
-        <v>1057.584365232162</v>
+        <v>1057.584365232161</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164203</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>12.97109763613553</v>
+        <v>12.97109763613556</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.062859685526064</v>
+        <v>7.062859685526109</v>
       </c>
       <c r="M4" t="n">
         <v>1043.645459804924</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164203</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>59.80869847563716</v>
+        <v>60.62832312804917</v>
       </c>
       <c r="S2" t="n">
         <v>178.8437391585118</v>
       </c>
       <c r="T2" t="n">
-        <v>211.2425272593672</v>
+        <v>217.2989483486666</v>
       </c>
       <c r="U2" t="n">
         <v>251.2397129655779</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>320.8762127284235</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27464,10 +27464,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>139.0127913040845</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.6349813347674</v>
@@ -27476,7 +27476,7 @@
         <v>105.3924797881105</v>
       </c>
       <c r="I3" t="n">
-        <v>58.12582284093458</v>
+        <v>65.00186858264601</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.29041478179859</v>
+        <v>56.16646052351003</v>
       </c>
       <c r="S3" t="n">
-        <v>158.5224288518331</v>
+        <v>151.6463831101217</v>
       </c>
       <c r="T3" t="n">
-        <v>197.3088320880702</v>
+        <v>190.4327863463587</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8947678817351</v>
+        <v>219.0187221400237</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>199.7165641141781</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>156.9458601503032</v>
       </c>
       <c r="I4" t="n">
-        <v>130.7108491472983</v>
+        <v>137.5868948890097</v>
       </c>
       <c r="J4" t="n">
         <v>51.36248665915791</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.54553930795525</v>
+        <v>36.42158504966668</v>
       </c>
       <c r="R4" t="n">
-        <v>150.5844231579502</v>
+        <v>143.7083774162388</v>
       </c>
       <c r="S4" t="n">
         <v>213.6645778031988</v>
@@ -27591,13 +27591,13 @@
         <v>225.4075354325207</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2866286671833</v>
+        <v>279.4105829254719</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>279.6469525948796</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27634,7 +27634,7 @@
         <v>325.9128341950639</v>
       </c>
       <c r="I5" t="n">
-        <v>152.5467235296183</v>
+        <v>159.4227692713298</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.62832312804917</v>
+        <v>59.80869847563716</v>
       </c>
       <c r="S5" t="n">
         <v>178.8437391585118</v>
@@ -27670,7 +27670,7 @@
         <v>217.2989483486666</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2397129655779</v>
+        <v>245.1832918762784</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>130.578560245468</v>
+        <v>136.6349813347674</v>
       </c>
       <c r="H6" t="n">
         <v>105.3924797881105</v>
       </c>
       <c r="I6" t="n">
-        <v>58.12582284093458</v>
+        <v>65.00186858264601</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.29041478179859</v>
+        <v>56.16646052351003</v>
       </c>
       <c r="S6" t="n">
         <v>158.5224288518331</v>
@@ -27749,10 +27749,10 @@
         <v>197.3088320880702</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8947678817351</v>
+        <v>219.8383467924357</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W6" t="n">
         <v>244.8189374192082</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>137.5868948890097</v>
       </c>
       <c r="J7" t="n">
-        <v>44.48644091744647</v>
+        <v>51.36248665915791</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.54553930795525</v>
+        <v>36.42158504966668</v>
       </c>
       <c r="R7" t="n">
-        <v>150.5844231579502</v>
+        <v>143.7083774162388</v>
       </c>
       <c r="S7" t="n">
         <v>213.6645778031988</v>
@@ -27828,16 +27828,16 @@
         <v>225.4075354325207</v>
       </c>
       <c r="U7" t="n">
-        <v>280.2302075778839</v>
+        <v>286.2866286671833</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>245.2615975821166</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>280.4665772472916</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>368.7949362362434</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>376.5290279136627</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>325.5074567455836</v>
       </c>
       <c r="I8" t="n">
-        <v>143.9578475744879</v>
+        <v>157.8967530017251</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>50.25939512250089</v>
+        <v>64.19830054973812</v>
       </c>
       <c r="S8" t="n">
-        <v>177.9417458832737</v>
+        <v>164.0028404560365</v>
       </c>
       <c r="T8" t="n">
         <v>217.1256745993586</v>
       </c>
       <c r="U8" t="n">
-        <v>245.8352041822056</v>
+        <v>251.2365463408047</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>152.5942782226301</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>133.5061601374015</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>145.3676925550904</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>40.91261976054702</v>
+        <v>54.85152518778425</v>
       </c>
       <c r="S9" t="n">
         <v>144.1901389129543</v>
@@ -27986,13 +27986,13 @@
         <v>197.2234671845994</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8933745481638</v>
+        <v>211.9544691209266</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>239.4175952606091</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>132.495057219332</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>137.0529390090937</v>
       </c>
       <c r="J10" t="n">
-        <v>36.16826839089681</v>
+        <v>50.10717381813404</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>20.99589981290509</v>
+        <v>22.65741733983177</v>
       </c>
       <c r="R10" t="n">
-        <v>137.5086840538716</v>
+        <v>149.7860719541821</v>
       </c>
       <c r="S10" t="n">
-        <v>213.3551481109984</v>
+        <v>199.4162426837612</v>
       </c>
       <c r="T10" t="n">
-        <v>225.3316710844068</v>
+        <v>211.3927656571696</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2856601861436</v>
+        <v>272.3467547589063</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="C11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="D11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="E11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="F11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="G11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="H11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="I11" t="n">
         <v>12.97109763613554</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="T11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="U11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="V11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="W11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="X11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="C13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="D13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="E13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="F13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="G13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="H13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="I13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="J13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="K13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="L13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="M13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="N13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="O13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="P13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="R13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="S13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="T13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="U13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="V13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="W13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="X13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777761</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="C14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="D14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="E14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="F14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="G14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="H14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="I14" t="n">
         <v>12.9710976361356</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="T14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="U14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="V14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="W14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="X14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="C16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="D16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="E16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="F16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="G16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="H16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="I16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="J16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="K16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="L16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="M16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="N16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="O16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="P16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="R16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="S16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="T16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="U16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="V16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="W16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="X16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="Y16" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="C17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="D17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="E17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="F17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="G17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="H17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="I17" t="n">
-        <v>12.97109763613551</v>
+        <v>12.9710976361356</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="T17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="U17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="V17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="W17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="X17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="C19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="D19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="E19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="F19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="G19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="H19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="I19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="J19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="K19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="L19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="M19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="N19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="O19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="P19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="R19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="S19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="T19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="U19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="V19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="W19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="X19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777761</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="C20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="D20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="E20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="F20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="G20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="H20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="I20" t="n">
-        <v>12.97109763613554</v>
+        <v>12.9710976361356</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="T20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="U20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="V20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="W20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="X20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="C22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="D22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="E22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="F22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="G22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="H22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="I22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="J22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="K22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="L22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="M22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="N22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="O22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="P22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="R22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="S22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="T22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="U22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="V22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="W22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="X22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="C23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="D23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="E23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="F23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="G23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="H23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="I23" t="n">
-        <v>12.97109763613551</v>
+        <v>12.97109763613554</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="T23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="U23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="V23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="W23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="X23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="C25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="D25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="E25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="F25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="G25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="H25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="I25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="J25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="K25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="L25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="M25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="N25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="O25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="P25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="R25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="S25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="T25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="U25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="V25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="W25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="X25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.92107340777754</v>
+        <v>31.92107340777758</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="C29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="D29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="E29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="F29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="G29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="H29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="I29" t="n">
         <v>12.97109763613551</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="T29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="U29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="V29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="W29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="X29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="Y29" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="C31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="D31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="E31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="F31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="G31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="H31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="I31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="J31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="K31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="L31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="M31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="N31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="O31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="P31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="R31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="S31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="T31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="U31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="V31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="W31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="X31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.94997577164204</v>
+        <v>18.94997577164201</v>
       </c>
     </row>
     <row r="32">
@@ -30405,7 +30405,7 @@
         <v>31.92107340777757</v>
       </c>
       <c r="K40" t="n">
-        <v>31.92107340777757</v>
+        <v>31.92107340777719</v>
       </c>
       <c r="L40" t="n">
         <v>31.92107340777757</v>
@@ -31133,7 +31133,7 @@
         <v>114.4129982271682</v>
       </c>
       <c r="L3" t="n">
-        <v>145.1526054916175</v>
+        <v>143.8277458061175</v>
       </c>
       <c r="M3" t="n">
         <v>149.0100796637298</v>
@@ -31145,7 +31145,7 @@
         <v>149.4722901861559</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>135.2992670998302</v>
       </c>
       <c r="Q3" t="n">
         <v>90.44397697812161</v>
@@ -31370,7 +31370,7 @@
         <v>114.4129982271682</v>
       </c>
       <c r="L6" t="n">
-        <v>145.4304255215856</v>
+        <v>143.8277458061175</v>
       </c>
       <c r="M6" t="n">
         <v>149.0100796637298</v>
@@ -31379,10 +31379,10 @@
         <v>138.2177578250447</v>
       </c>
       <c r="O6" t="n">
-        <v>149.1944701561877</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>135.2992670998302</v>
       </c>
       <c r="Q6" t="n">
         <v>90.44397697812161</v>
@@ -31838,7 +31838,7 @@
         <v>94.37391510967048</v>
       </c>
       <c r="J12" t="n">
-        <v>258.9692363538104</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>442.61967294175</v>
@@ -31850,7 +31850,7 @@
         <v>694.5198822784282</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>180.3291068510531</v>
       </c>
       <c r="O12" t="n">
         <v>652.1658309495915</v>
@@ -31859,10 +31859,10 @@
         <v>523.4205752923355</v>
       </c>
       <c r="Q12" t="n">
-        <v>291.2546973770388</v>
+        <v>349.8927930384522</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>170.185623221974</v>
       </c>
       <c r="S12" t="n">
         <v>50.91382554005785</v>
@@ -32084,22 +32084,22 @@
         <v>595.1567729304759</v>
       </c>
       <c r="M15" t="n">
-        <v>694.5198822784281</v>
+        <v>239.7266414408394</v>
       </c>
       <c r="N15" t="n">
         <v>712.9017569539296</v>
       </c>
       <c r="O15" t="n">
-        <v>611.3248772480181</v>
+        <v>652.1658309495914</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>523.4205752923353</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>170.1856232219739</v>
       </c>
       <c r="S15" t="n">
         <v>50.91382554005784</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.123008674775182</v>
+        <v>5.12300867477518</v>
       </c>
       <c r="H17" t="n">
-        <v>52.46601259054135</v>
+        <v>52.46601259054133</v>
       </c>
       <c r="I17" t="n">
-        <v>197.5047919342704</v>
+        <v>197.5047919342703</v>
       </c>
       <c r="J17" t="n">
-        <v>434.8089575107005</v>
+        <v>434.8089575107003</v>
       </c>
       <c r="K17" t="n">
-        <v>651.6659147139341</v>
+        <v>651.6659147139338</v>
       </c>
       <c r="L17" t="n">
-        <v>808.4491914445853</v>
+        <v>808.4491914445849</v>
       </c>
       <c r="M17" t="n">
-        <v>899.5554969646183</v>
+        <v>899.555496964618</v>
       </c>
       <c r="N17" t="n">
-        <v>914.1112453618234</v>
+        <v>914.1112453618231</v>
       </c>
       <c r="O17" t="n">
-        <v>863.1693278520277</v>
+        <v>863.1693278520273</v>
       </c>
       <c r="P17" t="n">
-        <v>736.6950511935152</v>
+        <v>736.6950511935149</v>
       </c>
       <c r="Q17" t="n">
-        <v>553.2273030281289</v>
+        <v>553.2273030281286</v>
       </c>
       <c r="R17" t="n">
-        <v>321.8081936668468</v>
+        <v>321.8081936668467</v>
       </c>
       <c r="S17" t="n">
-        <v>116.7405601764396</v>
+        <v>116.7405601764395</v>
       </c>
       <c r="T17" t="n">
-        <v>22.42597047382837</v>
+        <v>22.42597047382836</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4098406939820144</v>
+        <v>0.4098406939820143</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.741051292357308</v>
+        <v>2.741051292357307</v>
       </c>
       <c r="H18" t="n">
-        <v>26.4727848498719</v>
+        <v>26.47278484987189</v>
       </c>
       <c r="I18" t="n">
-        <v>94.37391510967049</v>
+        <v>94.37391510967046</v>
       </c>
       <c r="J18" t="n">
-        <v>258.9692363538105</v>
+        <v>258.9692363538103</v>
       </c>
       <c r="K18" t="n">
-        <v>442.6196729417501</v>
+        <v>442.61967294175</v>
       </c>
       <c r="L18" t="n">
-        <v>595.1567729304761</v>
+        <v>595.1567729304759</v>
       </c>
       <c r="M18" t="n">
-        <v>694.5198822784284</v>
+        <v>694.5198822784281</v>
       </c>
       <c r="N18" t="n">
-        <v>712.90175695393</v>
+        <v>557.7670836690578</v>
       </c>
       <c r="O18" t="n">
-        <v>611.3248772480167</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>523.4205752923353</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>349.8927930384521</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.1856232219739</v>
       </c>
       <c r="S18" t="n">
-        <v>50.91382554005786</v>
+        <v>50.91382554005784</v>
       </c>
       <c r="T18" t="n">
         <v>11.04836025296651</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1803323218656125</v>
+        <v>0.1803323218656124</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.298005325631738</v>
+        <v>2.298005325631737</v>
       </c>
       <c r="H19" t="n">
-        <v>20.43135644061674</v>
+        <v>20.43135644061673</v>
       </c>
       <c r="I19" t="n">
-        <v>69.10728742899811</v>
+        <v>69.10728742899808</v>
       </c>
       <c r="J19" t="n">
         <v>162.4689765221638</v>
       </c>
       <c r="K19" t="n">
-        <v>266.9864369233964</v>
+        <v>266.9864369233963</v>
       </c>
       <c r="L19" t="n">
-        <v>341.6507190489223</v>
+        <v>341.6507190489221</v>
       </c>
       <c r="M19" t="n">
-        <v>360.2227802715277</v>
+        <v>360.2227802715276</v>
       </c>
       <c r="N19" t="n">
-        <v>351.6574876941734</v>
+        <v>351.6574876941733</v>
       </c>
       <c r="O19" t="n">
-        <v>324.8126072992934</v>
+        <v>324.8126072992933</v>
       </c>
       <c r="P19" t="n">
-        <v>277.9332986564057</v>
+        <v>277.9332986564056</v>
       </c>
       <c r="Q19" t="n">
         <v>192.4266095853994</v>
@@ -32418,13 +32418,13 @@
         <v>103.3266758234052</v>
       </c>
       <c r="S19" t="n">
-        <v>40.04796553850945</v>
+        <v>40.04796553850944</v>
       </c>
       <c r="T19" t="n">
-        <v>9.818750027699242</v>
+        <v>9.818750027699238</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1253457450344586</v>
+        <v>0.1253457450344585</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.123008674775181</v>
+        <v>5.12300867477518</v>
       </c>
       <c r="H20" t="n">
-        <v>52.46601259054134</v>
+        <v>52.46601259054133</v>
       </c>
       <c r="I20" t="n">
-        <v>197.5047919342704</v>
+        <v>197.5047919342703</v>
       </c>
       <c r="J20" t="n">
-        <v>434.8089575107004</v>
+        <v>434.8089575107003</v>
       </c>
       <c r="K20" t="n">
-        <v>651.6659147139339</v>
+        <v>651.6659147139338</v>
       </c>
       <c r="L20" t="n">
-        <v>808.449191444585</v>
+        <v>808.4491914445849</v>
       </c>
       <c r="M20" t="n">
-        <v>899.5554969646182</v>
+        <v>899.555496964618</v>
       </c>
       <c r="N20" t="n">
-        <v>914.1112453618232</v>
+        <v>914.1112453618231</v>
       </c>
       <c r="O20" t="n">
-        <v>863.1693278520274</v>
+        <v>863.1693278520273</v>
       </c>
       <c r="P20" t="n">
-        <v>736.695051193515</v>
+        <v>736.6950511935149</v>
       </c>
       <c r="Q20" t="n">
-        <v>553.2273030281287</v>
+        <v>553.2273030281286</v>
       </c>
       <c r="R20" t="n">
-        <v>321.8081936668468</v>
+        <v>321.8081936668467</v>
       </c>
       <c r="S20" t="n">
-        <v>116.7405601764396</v>
+        <v>116.7405601764395</v>
       </c>
       <c r="T20" t="n">
-        <v>22.42597047382837</v>
+        <v>22.42597047382836</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4098406939820144</v>
+        <v>0.4098406939820143</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.741051292357308</v>
+        <v>2.741051292357307</v>
       </c>
       <c r="H21" t="n">
-        <v>26.4727848498719</v>
+        <v>26.47278484987189</v>
       </c>
       <c r="I21" t="n">
-        <v>94.37391510967048</v>
+        <v>94.37391510967046</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,28 +32555,28 @@
         <v>442.61967294175</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>452.0302907056055</v>
       </c>
       <c r="M21" t="n">
-        <v>694.5198822784282</v>
+        <v>694.5198822784281</v>
       </c>
       <c r="N21" t="n">
-        <v>712.9017569539299</v>
+        <v>712.9017569539296</v>
       </c>
       <c r="O21" t="n">
-        <v>652.1658309495915</v>
+        <v>652.1658309495914</v>
       </c>
       <c r="P21" t="n">
-        <v>523.4205752923355</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.4286553441877</v>
+        <v>349.8927930384521</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.1856232219739</v>
       </c>
       <c r="S21" t="n">
-        <v>50.91382554005785</v>
+        <v>50.91382554005784</v>
       </c>
       <c r="T21" t="n">
         <v>11.04836025296651</v>
@@ -32622,22 +32622,22 @@
         <v>2.298005325631737</v>
       </c>
       <c r="H22" t="n">
-        <v>20.43135644061674</v>
+        <v>20.43135644061673</v>
       </c>
       <c r="I22" t="n">
-        <v>69.10728742899809</v>
+        <v>69.10728742899808</v>
       </c>
       <c r="J22" t="n">
         <v>162.4689765221638</v>
       </c>
       <c r="K22" t="n">
-        <v>266.9864369233964</v>
+        <v>266.9864369233963</v>
       </c>
       <c r="L22" t="n">
-        <v>341.6507190489222</v>
+        <v>341.6507190489221</v>
       </c>
       <c r="M22" t="n">
-        <v>360.2227802715277</v>
+        <v>360.2227802715276</v>
       </c>
       <c r="N22" t="n">
         <v>351.6574876941733</v>
@@ -32646,7 +32646,7 @@
         <v>324.8126072992933</v>
       </c>
       <c r="P22" t="n">
-        <v>277.9332986564057</v>
+        <v>277.9332986564056</v>
       </c>
       <c r="Q22" t="n">
         <v>192.4266095853994</v>
@@ -32658,10 +32658,10 @@
         <v>40.04796553850944</v>
       </c>
       <c r="T22" t="n">
-        <v>9.81875002769924</v>
+        <v>9.818750027699238</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1253457450344586</v>
+        <v>0.1253457450344585</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.123008674775182</v>
+        <v>5.123008674775181</v>
       </c>
       <c r="H23" t="n">
-        <v>52.46601259054135</v>
+        <v>52.46601259054134</v>
       </c>
       <c r="I23" t="n">
         <v>197.5047919342704</v>
       </c>
       <c r="J23" t="n">
-        <v>434.8089575107005</v>
+        <v>434.8089575107004</v>
       </c>
       <c r="K23" t="n">
-        <v>651.6659147139341</v>
+        <v>651.6659147139339</v>
       </c>
       <c r="L23" t="n">
-        <v>808.4491914445853</v>
+        <v>808.449191444585</v>
       </c>
       <c r="M23" t="n">
-        <v>899.5554969646183</v>
+        <v>899.5554969646182</v>
       </c>
       <c r="N23" t="n">
-        <v>914.1112453618234</v>
+        <v>914.1112453618232</v>
       </c>
       <c r="O23" t="n">
-        <v>863.1693278520277</v>
+        <v>863.1693278520274</v>
       </c>
       <c r="P23" t="n">
-        <v>736.6950511935152</v>
+        <v>736.695051193515</v>
       </c>
       <c r="Q23" t="n">
-        <v>553.2273030281289</v>
+        <v>553.2273030281287</v>
       </c>
       <c r="R23" t="n">
         <v>321.8081936668468</v>
@@ -32783,7 +32783,7 @@
         <v>26.4727848498719</v>
       </c>
       <c r="I24" t="n">
-        <v>94.37391510967049</v>
+        <v>94.37391510967048</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,16 +32792,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>595.1567729304761</v>
+        <v>391.8684760530004</v>
       </c>
       <c r="M24" t="n">
-        <v>694.5198822784284</v>
+        <v>694.5198822784282</v>
       </c>
       <c r="N24" t="n">
-        <v>712.90175695393</v>
+        <v>712.9017569539299</v>
       </c>
       <c r="O24" t="n">
-        <v>448.8775340721152</v>
+        <v>652.1658309495915</v>
       </c>
       <c r="P24" t="n">
         <v>523.4205752923355</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>50.91382554005786</v>
+        <v>50.91382554005785</v>
       </c>
       <c r="T24" t="n">
         <v>11.04836025296651</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1803323218656125</v>
+        <v>0.1803323218656124</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.298005325631738</v>
+        <v>2.298005325631737</v>
       </c>
       <c r="H25" t="n">
         <v>20.43135644061674</v>
       </c>
       <c r="I25" t="n">
-        <v>69.10728742899811</v>
+        <v>69.10728742899809</v>
       </c>
       <c r="J25" t="n">
         <v>162.4689765221638</v>
@@ -32871,16 +32871,16 @@
         <v>266.9864369233964</v>
       </c>
       <c r="L25" t="n">
-        <v>341.6507190489223</v>
+        <v>341.6507190489222</v>
       </c>
       <c r="M25" t="n">
         <v>360.2227802715277</v>
       </c>
       <c r="N25" t="n">
-        <v>351.6574876941734</v>
+        <v>351.6574876941733</v>
       </c>
       <c r="O25" t="n">
-        <v>324.8126072992934</v>
+        <v>324.8126072992933</v>
       </c>
       <c r="P25" t="n">
         <v>277.9332986564057</v>
@@ -32892,10 +32892,10 @@
         <v>103.3266758234052</v>
       </c>
       <c r="S25" t="n">
-        <v>40.04796553850945</v>
+        <v>40.04796553850944</v>
       </c>
       <c r="T25" t="n">
-        <v>9.818750027699242</v>
+        <v>9.81875002769924</v>
       </c>
       <c r="U25" t="n">
         <v>0.1253457450344586</v>
@@ -33023,22 +33023,22 @@
         <v>94.37391510967049</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>258.9692363538105</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>330.301261508139</v>
       </c>
       <c r="L27" t="n">
         <v>595.1567729304761</v>
       </c>
       <c r="M27" t="n">
-        <v>694.5198822784284</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>712.90175695393</v>
       </c>
       <c r="O27" t="n">
-        <v>424.3714148141051</v>
+        <v>652.1658309495916</v>
       </c>
       <c r="P27" t="n">
         <v>523.4205752923355</v>
@@ -33260,7 +33260,7 @@
         <v>94.37391510967049</v>
       </c>
       <c r="J30" t="n">
-        <v>258.9692363538105</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>442.6196729417501</v>
@@ -33269,10 +33269,10 @@
         <v>595.1567729304761</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>694.5198822784284</v>
       </c>
       <c r="N30" t="n">
-        <v>712.90175695393</v>
+        <v>180.3291068510524</v>
       </c>
       <c r="O30" t="n">
         <v>652.1658309495916</v>
@@ -33281,10 +33281,10 @@
         <v>523.4205752923355</v>
       </c>
       <c r="Q30" t="n">
-        <v>262.0805008628517</v>
+        <v>349.8927930384522</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>170.185623221974</v>
       </c>
       <c r="S30" t="n">
         <v>50.91382554005786</v>
@@ -33497,7 +33497,7 @@
         <v>94.37391510967049</v>
       </c>
       <c r="J33" t="n">
-        <v>258.9692363538105</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>442.6196729417501</v>
@@ -33506,10 +33506,10 @@
         <v>595.1567729304761</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>161.947232175551</v>
       </c>
       <c r="N33" t="n">
-        <v>600.583345520319</v>
+        <v>712.90175695393</v>
       </c>
       <c r="O33" t="n">
         <v>652.1658309495916</v>
@@ -33734,10 +33734,10 @@
         <v>94.37391510967049</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>258.9692363538105</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>287.4849996568762</v>
       </c>
       <c r="L36" t="n">
         <v>595.1567729304761</v>
@@ -33749,7 +33749,7 @@
         <v>712.90175695393</v>
       </c>
       <c r="O36" t="n">
-        <v>448.8775340721152</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>523.4205752923355</v>
@@ -33758,7 +33758,7 @@
         <v>349.8927930384522</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>170.185623221974</v>
       </c>
       <c r="S36" t="n">
         <v>50.91382554005786</v>
@@ -33971,13 +33971,13 @@
         <v>94.37391510967049</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>258.9692363538105</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>442.6196729417501</v>
       </c>
       <c r="L39" t="n">
-        <v>595.1567729304761</v>
+        <v>140.3635320928859</v>
       </c>
       <c r="M39" t="n">
         <v>694.5198822784284</v>
@@ -33986,16 +33986,16 @@
         <v>712.90175695393</v>
       </c>
       <c r="O39" t="n">
-        <v>448.8775340721152</v>
+        <v>652.1658309495916</v>
       </c>
       <c r="P39" t="n">
         <v>523.4205752923355</v>
       </c>
       <c r="Q39" t="n">
-        <v>349.8927930384522</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>170.185623221974</v>
       </c>
       <c r="S39" t="n">
         <v>50.91382554005786</v>
@@ -34208,10 +34208,10 @@
         <v>94.37391510967049</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>258.9692363538105</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>359.4754580223256</v>
       </c>
       <c r="L42" t="n">
         <v>595.1567729304761</v>
@@ -34220,10 +34220,10 @@
         <v>694.5198822784284</v>
       </c>
       <c r="N42" t="n">
-        <v>712.90175695393</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>448.8775340721152</v>
+        <v>652.1658309495916</v>
       </c>
       <c r="P42" t="n">
         <v>523.4205752923355</v>
@@ -34232,7 +34232,7 @@
         <v>349.8927930384522</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.185623221974</v>
       </c>
       <c r="S42" t="n">
         <v>50.91382554005786</v>
@@ -34366,7 +34366,7 @@
         <v>197.5047919342704</v>
       </c>
       <c r="J44" t="n">
-        <v>434.8089575107005</v>
+        <v>434.8089575106995</v>
       </c>
       <c r="K44" t="n">
         <v>651.6659147139341</v>
@@ -34454,10 +34454,10 @@
         <v>595.1567729304761</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>694.5198822784284</v>
       </c>
       <c r="N45" t="n">
-        <v>600.583345520319</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>652.1658309495916</v>
@@ -34466,7 +34466,7 @@
         <v>523.4205752923355</v>
       </c>
       <c r="Q45" t="n">
-        <v>349.8927930384522</v>
+        <v>266.7485781190283</v>
       </c>
       <c r="R45" t="n">
         <v>170.185623221974</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K2" t="n">
-        <v>4.417872862493068</v>
-      </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
         <v>2.180352849250227</v>
@@ -34711,13 +34711,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.417872862493069</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.598225711743296</v>
+        <v>5.273366026243322</v>
       </c>
       <c r="M3" t="n">
         <v>6.876045741711437</v>
@@ -34793,7 +34793,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.324859685499973</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L4" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P4" t="n">
         <v>6.876045741711437</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>4.417872862493068</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.180352849250227</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>6.876045741711437</v>
+        <v>5.273366026243322</v>
       </c>
       <c r="M6" t="n">
         <v>6.876045741711437</v>
@@ -35027,10 +35027,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O6" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.324859685499973</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="M7" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N7" t="n">
         <v>6.876045741711437</v>
@@ -35109,7 +35109,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,7 +35170,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.244969452351365</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,19 +35179,19 @@
         <v>13.93890542723723</v>
       </c>
       <c r="M8" t="n">
-        <v>13.93890542723723</v>
+        <v>9.13074787681569</v>
       </c>
       <c r="N8" t="n">
         <v>13.93890542723722</v>
       </c>
       <c r="O8" t="n">
-        <v>13.37571732916705</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="M10" t="n">
-        <v>13.93890542723723</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>13.37571732916704</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>13.93890542723723</v>
       </c>
       <c r="P10" t="n">
-        <v>13.93890542723723</v>
+        <v>13.37571732916704</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>132.1316096871437</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>304.778233967391</v>
@@ -35498,7 +35498,7 @@
         <v>552.38584835641</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>48.98739476771981</v>
       </c>
       <c r="O12" t="n">
         <v>509.5695865051471</v>
@@ -35507,10 +35507,10 @@
         <v>389.4461678780052</v>
       </c>
       <c r="Q12" t="n">
-        <v>151.2729232910173</v>
+        <v>209.9110189524307</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>24.50611925801002</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>101.0308698132686</v>
+        <v>101.0308698132687</v>
       </c>
       <c r="K13" t="n">
         <v>276.6380185052911</v>
       </c>
       <c r="L13" t="n">
-        <v>401.1618177170158</v>
+        <v>401.1618177170159</v>
       </c>
       <c r="M13" t="n">
-        <v>431.7277306411458</v>
+        <v>431.7277306411459</v>
       </c>
       <c r="N13" t="n">
         <v>427.7107334811795</v>
@@ -35583,7 +35583,7 @@
         <v>381.3188086211106</v>
       </c>
       <c r="P13" t="n">
-        <v>307.1329313290767</v>
+        <v>307.1329313290768</v>
       </c>
       <c r="Q13" t="n">
         <v>138.1856397414826</v>
@@ -35732,22 +35732,22 @@
         <v>456.6023931506017</v>
       </c>
       <c r="M15" t="n">
-        <v>552.3858483564097</v>
+        <v>97.59260751882105</v>
       </c>
       <c r="N15" t="n">
         <v>581.5600448705964</v>
       </c>
       <c r="O15" t="n">
-        <v>468.7286328035736</v>
+        <v>509.569586505147</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>389.4461678780051</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>24.50611925800999</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,19 +35811,19 @@
         <v>401.1618177170158</v>
       </c>
       <c r="M16" t="n">
-        <v>431.7277306411457</v>
+        <v>431.7277306411458</v>
       </c>
       <c r="N16" t="n">
         <v>427.7107334811794</v>
       </c>
       <c r="O16" t="n">
-        <v>381.3188086211105</v>
+        <v>381.3188086211106</v>
       </c>
       <c r="P16" t="n">
         <v>307.1329313290767</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.1856397414825</v>
+        <v>138.1856397414826</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>253.7630529840142</v>
+        <v>253.7630529840141</v>
       </c>
       <c r="K17" t="n">
-        <v>431.5760636689535</v>
+        <v>431.5760636689533</v>
       </c>
       <c r="L17" t="n">
-        <v>572.6827764745981</v>
+        <v>572.6827764745976</v>
       </c>
       <c r="M17" t="n">
-        <v>669.2092637373456</v>
+        <v>669.2092637373453</v>
       </c>
       <c r="N17" t="n">
-        <v>684.6981817652324</v>
+        <v>684.6981817652322</v>
       </c>
       <c r="O17" t="n">
-        <v>633.0711164303409</v>
+        <v>633.0711164303406</v>
       </c>
       <c r="P17" t="n">
-        <v>505.4620554382456</v>
+        <v>505.4620554382454</v>
       </c>
       <c r="Q17" t="n">
-        <v>330.9216131536793</v>
+        <v>330.9216131536791</v>
       </c>
       <c r="R17" t="n">
-        <v>106.2226558527147</v>
+        <v>106.2226558527146</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.1316096871438</v>
+        <v>132.1316096871437</v>
       </c>
       <c r="K18" t="n">
-        <v>304.7782339673911</v>
+        <v>304.778233967391</v>
       </c>
       <c r="L18" t="n">
-        <v>456.6023931506019</v>
+        <v>456.6023931506017</v>
       </c>
       <c r="M18" t="n">
-        <v>552.3858483564102</v>
+        <v>552.3858483564097</v>
       </c>
       <c r="N18" t="n">
-        <v>581.5600448705967</v>
+        <v>426.4253715857245</v>
       </c>
       <c r="O18" t="n">
-        <v>468.7286328035723</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>389.4461678780051</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>209.9110189524306</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.50611925800999</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>101.0308698132686</v>
       </c>
       <c r="K19" t="n">
-        <v>276.6380185052911</v>
+        <v>276.638018505291</v>
       </c>
       <c r="L19" t="n">
         <v>401.1618177170159</v>
       </c>
       <c r="M19" t="n">
-        <v>431.7277306411459</v>
+        <v>431.7277306411458</v>
       </c>
       <c r="N19" t="n">
-        <v>427.7107334811795</v>
+        <v>427.7107334811794</v>
       </c>
       <c r="O19" t="n">
         <v>381.3188086211106</v>
       </c>
       <c r="P19" t="n">
-        <v>307.1329313290768</v>
+        <v>307.1329313290767</v>
       </c>
       <c r="Q19" t="n">
         <v>138.1856397414826</v>
@@ -36121,25 +36121,25 @@
         <v>253.7630529840141</v>
       </c>
       <c r="K20" t="n">
-        <v>431.5760636689534</v>
+        <v>431.5760636689533</v>
       </c>
       <c r="L20" t="n">
-        <v>572.6827764745979</v>
+        <v>572.6827764745976</v>
       </c>
       <c r="M20" t="n">
-        <v>669.2092637373455</v>
+        <v>669.2092637373453</v>
       </c>
       <c r="N20" t="n">
         <v>684.6981817652322</v>
       </c>
       <c r="O20" t="n">
-        <v>633.0711164303407</v>
+        <v>633.0711164303406</v>
       </c>
       <c r="P20" t="n">
-        <v>505.4620554382455</v>
+        <v>505.4620554382454</v>
       </c>
       <c r="Q20" t="n">
-        <v>330.9216131536792</v>
+        <v>330.9216131536791</v>
       </c>
       <c r="R20" t="n">
         <v>106.2226558527146</v>
@@ -36203,25 +36203,25 @@
         <v>304.778233967391</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>313.4759109257313</v>
       </c>
       <c r="M21" t="n">
-        <v>552.38584835641</v>
+        <v>552.3858483564097</v>
       </c>
       <c r="N21" t="n">
-        <v>581.5600448705966</v>
+        <v>581.5600448705964</v>
       </c>
       <c r="O21" t="n">
-        <v>509.5695865051471</v>
+        <v>509.569586505147</v>
       </c>
       <c r="P21" t="n">
-        <v>389.4461678780052</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.4468812581663</v>
+        <v>209.9110189524306</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>24.50611925800999</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,13 +36285,13 @@
         <v>401.1618177170158</v>
       </c>
       <c r="M22" t="n">
-        <v>431.7277306411458</v>
+        <v>431.7277306411457</v>
       </c>
       <c r="N22" t="n">
         <v>427.7107334811794</v>
       </c>
       <c r="O22" t="n">
-        <v>381.3188086211106</v>
+        <v>381.3188086211105</v>
       </c>
       <c r="P22" t="n">
         <v>307.1329313290767</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>253.7630529840142</v>
+        <v>253.7630529840141</v>
       </c>
       <c r="K23" t="n">
-        <v>431.5760636689535</v>
+        <v>431.5760636689534</v>
       </c>
       <c r="L23" t="n">
-        <v>572.6827764745981</v>
+        <v>572.6827764745979</v>
       </c>
       <c r="M23" t="n">
-        <v>669.2092637373456</v>
+        <v>669.2092637373455</v>
       </c>
       <c r="N23" t="n">
-        <v>684.6981817652324</v>
+        <v>684.6981817652322</v>
       </c>
       <c r="O23" t="n">
-        <v>633.0711164303409</v>
+        <v>633.0711164303407</v>
       </c>
       <c r="P23" t="n">
-        <v>505.4620554382456</v>
+        <v>505.4620554382455</v>
       </c>
       <c r="Q23" t="n">
-        <v>330.9216131536793</v>
+        <v>330.9216131536792</v>
       </c>
       <c r="R23" t="n">
-        <v>106.2226558527147</v>
+        <v>106.2226558527146</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>456.6023931506019</v>
+        <v>253.3140962731263</v>
       </c>
       <c r="M24" t="n">
-        <v>552.3858483564102</v>
+        <v>552.38584835641</v>
       </c>
       <c r="N24" t="n">
-        <v>581.5600448705967</v>
+        <v>581.5600448705966</v>
       </c>
       <c r="O24" t="n">
-        <v>306.2812896276707</v>
+        <v>509.5695865051471</v>
       </c>
       <c r="P24" t="n">
         <v>389.4461678780052</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.1316096871438</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>192.45982253378</v>
       </c>
       <c r="L27" t="n">
         <v>456.6023931506019</v>
       </c>
       <c r="M27" t="n">
-        <v>552.3858483564102</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>581.5600448705967</v>
       </c>
       <c r="O27" t="n">
-        <v>281.7751703696607</v>
+        <v>509.5695865051472</v>
       </c>
       <c r="P27" t="n">
         <v>389.4461678780052</v>
@@ -36771,7 +36771,7 @@
         <v>294.1618336929412</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.2145421053471</v>
+        <v>125.214542105347</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>132.1316096871438</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>304.7782339673911</v>
@@ -36917,10 +36917,10 @@
         <v>456.6023931506019</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>552.3858483564102</v>
       </c>
       <c r="N30" t="n">
-        <v>581.5600448705967</v>
+        <v>48.98739476771912</v>
       </c>
       <c r="O30" t="n">
         <v>509.5695865051472</v>
@@ -36929,10 +36929,10 @@
         <v>389.4461678780052</v>
       </c>
       <c r="Q30" t="n">
-        <v>122.0987267768302</v>
+        <v>209.9110189524307</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>24.50611925801005</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>88.05977217713311</v>
+        <v>88.05977217713308</v>
       </c>
       <c r="K31" t="n">
-        <v>263.6669208691556</v>
+        <v>263.6669208691555</v>
       </c>
       <c r="L31" t="n">
-        <v>388.1907200808805</v>
+        <v>388.1907200808804</v>
       </c>
       <c r="M31" t="n">
         <v>418.7566330050103</v>
       </c>
       <c r="N31" t="n">
-        <v>414.739635845044</v>
+        <v>414.7396358450439</v>
       </c>
       <c r="O31" t="n">
         <v>368.3477109849751</v>
@@ -37008,7 +37008,7 @@
         <v>294.1618336929412</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.2145421053471</v>
+        <v>125.214542105347</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>132.1316096871438</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>304.7782339673911</v>
@@ -37154,10 +37154,10 @@
         <v>456.6023931506019</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>19.81319825353264</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2416334369856</v>
+        <v>581.5600448705967</v>
       </c>
       <c r="O33" t="n">
         <v>509.5695865051472</v>
@@ -37230,7 +37230,7 @@
         <v>276.6380185052911</v>
       </c>
       <c r="L34" t="n">
-        <v>401.1618177170159</v>
+        <v>401.161817717016</v>
       </c>
       <c r="M34" t="n">
         <v>431.7277306411459</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.1316096871438</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>149.6435606825172</v>
       </c>
       <c r="L36" t="n">
         <v>456.6023931506019</v>
@@ -37397,7 +37397,7 @@
         <v>581.5600448705967</v>
       </c>
       <c r="O36" t="n">
-        <v>306.2812896276707</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>389.4461678780052</v>
@@ -37406,7 +37406,7 @@
         <v>209.9110189524307</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>24.50611925801005</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>276.6380185052911</v>
       </c>
       <c r="L37" t="n">
-        <v>401.161817717016</v>
+        <v>401.1618177170159</v>
       </c>
       <c r="M37" t="n">
         <v>431.7277306411459</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.1316096871438</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>304.7782339673911</v>
       </c>
       <c r="L39" t="n">
-        <v>456.6023931506019</v>
+        <v>1.80915231301173</v>
       </c>
       <c r="M39" t="n">
         <v>552.3858483564102</v>
@@ -37634,16 +37634,16 @@
         <v>581.5600448705967</v>
       </c>
       <c r="O39" t="n">
-        <v>306.2812896276707</v>
+        <v>509.5695865051472</v>
       </c>
       <c r="P39" t="n">
         <v>389.4461678780052</v>
       </c>
       <c r="Q39" t="n">
-        <v>209.9110189524307</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>24.50611925801005</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.0308698132686</v>
       </c>
       <c r="K40" t="n">
-        <v>276.6380185052911</v>
+        <v>276.6380185052907</v>
       </c>
       <c r="L40" t="n">
         <v>401.161817717016</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.1316096871438</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>221.6340190479666</v>
       </c>
       <c r="L42" t="n">
         <v>456.6023931506019</v>
@@ -37868,10 +37868,10 @@
         <v>552.3858483564102</v>
       </c>
       <c r="N42" t="n">
-        <v>581.5600448705967</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>306.2812896276707</v>
+        <v>509.5695865051472</v>
       </c>
       <c r="P42" t="n">
         <v>389.4461678780052</v>
@@ -37880,7 +37880,7 @@
         <v>209.9110189524307</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>24.50611925801005</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>82.08089404162659</v>
+        <v>82.08089404162661</v>
       </c>
       <c r="K43" t="n">
         <v>257.6880427336491</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>253.7630529840142</v>
+        <v>253.7630529840133</v>
       </c>
       <c r="K44" t="n">
         <v>431.5760636689535</v>
@@ -38102,10 +38102,10 @@
         <v>456.6023931506019</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>552.3858483564102</v>
       </c>
       <c r="N45" t="n">
-        <v>469.2416334369856</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>509.5695865051472</v>
@@ -38114,7 +38114,7 @@
         <v>389.4461678780052</v>
       </c>
       <c r="Q45" t="n">
-        <v>209.9110189524307</v>
+        <v>126.7668040330067</v>
       </c>
       <c r="R45" t="n">
         <v>24.50611925801005</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>82.08089404162659</v>
+        <v>82.08089404162661</v>
       </c>
       <c r="K46" t="n">
         <v>257.6880427336491</v>
